--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_19_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_19_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282734.9461489493</v>
+        <v>271901.3737832765</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20956695.12293959</v>
+        <v>20684111.61333511</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17160857.75853751</v>
+        <v>16888274.24893303</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3736673.481747712</v>
+        <v>3905211.935483689</v>
       </c>
     </row>
     <row r="11">
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.201366535222905</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="I5" t="n">
-        <v>32.36675456763109</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>32.36675456763109</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.20136653522287</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>28.50863742316941</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>32.36675456763109</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>32.36675456763109</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>32.36675456763109</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>28.50863742316946</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
     </row>
     <row r="7">
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>53.05253676699684</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="F8" t="n">
-        <v>60.23221703791663</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="H8" t="n">
-        <v>60.23221703791663</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>36.85760042916975</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>16.19493633782719</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.23221703791663</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>60.23221703791663</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.18538847949797</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>60.23221703791663</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="H9" t="n">
-        <v>60.23221703791663</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.86640310864001</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>22.00074517885898</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>53.05253676699684</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>50.10311736083153</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8916316581077</v>
+        <v>107.3621491644613</v>
       </c>
       <c r="V11" t="n">
-        <v>57.25903180362969</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="C12" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>60.28076700596007</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.08138215850112</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>111.1613841420478</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>33.94036506538212</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94036506538213</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>25.66137551878161</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G14" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="H14" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.70077364567959</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>111.161384142048</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H15" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.08138215850113</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U15" t="n">
-        <v>105.963087881991</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.94036506538239</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.94036506538207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>25.66137551878171</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>107.3621491644612</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="U17" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="D18" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>107.3621491644614</v>
+        <v>107.3621491644613</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>33.94036506538219</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94036506538219</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>121.8916316581081</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>25.66137551878173</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="G20" t="n">
-        <v>107.3621491644615</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>121.8916316581081</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>121.8916316581081</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>107.3621491644615</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>31.15283838238463</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>121.8916316581081</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581078</v>
       </c>
     </row>
     <row r="22">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>33.94036506538219</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>33.9403650653825</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>332.6368630202508</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>293.9629387137052</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.290675977935251</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>115.5705294868528</v>
+        <v>39.96434640209758</v>
       </c>
       <c r="T23" t="n">
-        <v>211.7992677899944</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0222025461392</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>332.6368630202508</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.85384836195696</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>112.089903338178</v>
@@ -2456,13 +2456,13 @@
         <v>207.8863909897115</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>83.06906016392267</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>91.876175949756</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>60.88455646607139</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>60.88455646607126</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>332.6368630202509</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>332.6368630202509</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>53.58409768342285</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.290675977935251</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>115.5705294868528</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>211.7992677899944</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0222025461392</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>40.94073616756599</v>
+        <v>332.6368630202509</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>27.60318347481942</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>117.7021820926707</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>112.089903338178</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>170.5502999724113</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>164.9223385450075</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>96.64852047691527</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
         <v>177.5210747552478</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>116.1640051795759</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6014918580186</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>98.40955853320621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.290675977935251</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>115.5705294868528</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.7992677899944</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0222025461392</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>332.6368630202509</v>
+        <v>292.9865489482368</v>
       </c>
       <c r="W29" t="n">
-        <v>332.6368630202509</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>40.94073616756609</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>69.09799100516663</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>117.7021820926707</v>
+        <v>39.40592077640266</v>
       </c>
       <c r="H30" t="n">
-        <v>76.23989434542257</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>24.85294348666546</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2930,13 +2930,13 @@
         <v>207.8863909897115</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.268398989460168</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>50.02597804274776</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>332.6368630202509</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>332.6368630202509</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.290675977935251</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.5705294868528</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>211.7992677899944</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0222025461392</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>40.9407361675662</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>332.6368630202509</v>
       </c>
       <c r="X32" t="n">
-        <v>332.6368630202509</v>
+        <v>81.1872811582423</v>
       </c>
       <c r="Y32" t="n">
-        <v>332.6368630202509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,7 +3119,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.85384836195696</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>112.089903338178</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>170.5502999724113</v>
+        <v>159.5730977026047</v>
       </c>
       <c r="U33" t="n">
-        <v>207.8863909897115</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>184.6102233775809</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3204,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.44594531021047</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.583940323119988</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3231,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.252177704435</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>79.04628532410493</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.8830936859346</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="G35" t="n">
-        <v>332.636863020251</v>
+        <v>292.9865489482369</v>
       </c>
       <c r="H35" t="n">
-        <v>298.6955521866505</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>326.9278597818375</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="Y35" t="n">
-        <v>332.636863020251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>76.23989434542257</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>24.85294348666546</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>13.63718647962487</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>112.089903338178</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>170.5502999724113</v>
@@ -3404,16 +3404,16 @@
         <v>207.8863909897115</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>119.3350834107352</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>126.0128215984375</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>281.7654970375945</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>292.9865489482368</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>332.6368630202508</v>
+        <v>332.6368630202509</v>
       </c>
       <c r="F38" t="n">
-        <v>332.6368630202508</v>
+        <v>332.6368630202509</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>332.6368630202509</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>292.9865489482368</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73.06371528031076</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
         <v>135.0820259802211</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.7021820926707</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>112.089903338178</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>170.5502999724113</v>
@@ -3644,7 +3644,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>207.4640717395379</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>98.40955853320621</v>
       </c>
       <c r="F40" t="n">
-        <v>18.44594531021048</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>211.3573302949842</v>
       </c>
       <c r="F41" t="n">
         <v>332.6368630202508</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>298.6955521866505</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.290675977935251</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>115.5705294868528</v>
       </c>
       <c r="T41" t="n">
-        <v>173.1253434834486</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,13 +3821,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>49.12017602568271</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3872,19 +3872,19 @@
         <v>112.089903338178</v>
       </c>
       <c r="T42" t="n">
-        <v>165.3672694220361</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.4365373666491</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.252177704435</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>281.7654970375945</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>332.6368630202508</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>332.6368630202508</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>73.90565723569773</v>
       </c>
       <c r="H44" t="n">
-        <v>177.4160194613839</v>
+        <v>298.6955521866505</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>115.5705294868528</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0222025461392</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>40.59973400785701</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
@@ -4076,7 +4076,7 @@
         <v>76.23989434542257</v>
       </c>
       <c r="I45" t="n">
-        <v>8.424548121907277</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>112.089903338178</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.5502999724113</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.26839898946035</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>281.7654970375945</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.49653339859634</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="C5" t="n">
-        <v>36.49653339859634</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="D5" t="n">
-        <v>36.49653339859634</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="E5" t="n">
-        <v>36.49653339859634</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="F5" t="n">
-        <v>36.49653339859634</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="G5" t="n">
-        <v>36.49653339859634</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="H5" t="n">
-        <v>35.28303184786613</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="I5" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="J5" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K5" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L5" t="n">
-        <v>12.8868402013538</v>
+        <v>12.88684020135377</v>
       </c>
       <c r="M5" t="n">
-        <v>44.92992722330858</v>
+        <v>44.9299272233085</v>
       </c>
       <c r="N5" t="n">
-        <v>76.97301424526336</v>
+        <v>76.97301424526322</v>
       </c>
       <c r="O5" t="n">
-        <v>101.8839163635076</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="P5" t="n">
-        <v>101.8839163635076</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.8839163635076</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="R5" t="n">
-        <v>69.19022488105199</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="S5" t="n">
-        <v>36.49653339859634</v>
+        <v>69.19022488105185</v>
       </c>
       <c r="T5" t="n">
-        <v>36.49653339859634</v>
+        <v>69.19022488105185</v>
       </c>
       <c r="U5" t="n">
-        <v>36.49653339859634</v>
+        <v>69.19022488105185</v>
       </c>
       <c r="V5" t="n">
-        <v>36.49653339859634</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="W5" t="n">
-        <v>36.49653339859634</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="X5" t="n">
-        <v>36.49653339859634</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.49653339859634</v>
+        <v>35.28303184786608</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="C6" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="D6" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="E6" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="F6" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="G6" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="H6" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="I6" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="J6" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K6" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L6" t="n">
-        <v>32.69899211626076</v>
+        <v>32.69899211626073</v>
       </c>
       <c r="M6" t="n">
-        <v>64.74207913821554</v>
+        <v>46.69991159467671</v>
       </c>
       <c r="N6" t="n">
-        <v>96.78516616017032</v>
+        <v>78.74299861663144</v>
       </c>
       <c r="O6" t="n">
-        <v>128.8282531821251</v>
+        <v>110.7860856385862</v>
       </c>
       <c r="P6" t="n">
-        <v>129.4670182705244</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="Q6" t="n">
-        <v>129.4670182705244</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="R6" t="n">
-        <v>96.77332678806872</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="S6" t="n">
-        <v>64.07963530561307</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="T6" t="n">
-        <v>31.38594382315742</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="U6" t="n">
-        <v>2.589340365410487</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="V6" t="n">
-        <v>2.589340365410487</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="W6" t="n">
-        <v>2.589340365410487</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="X6" t="n">
-        <v>2.589340365410487</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.589340365410487</v>
+        <v>31.38594382315736</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="C7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="D7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="E7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="F7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="G7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="H7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="I7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="J7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="M7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="N7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="O7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="P7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="R7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="S7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="T7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="U7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="V7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="W7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="X7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.0882448810436</v>
+        <v>240.928868151666</v>
       </c>
       <c r="C8" t="n">
-        <v>180.0882448810436</v>
+        <v>240.928868151666</v>
       </c>
       <c r="D8" t="n">
-        <v>180.0882448810436</v>
+        <v>187.3404471749015</v>
       </c>
       <c r="E8" t="n">
-        <v>180.0882448810436</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="F8" t="n">
-        <v>119.2476216104208</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="G8" t="n">
-        <v>119.2476216104208</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="H8" t="n">
-        <v>58.40699833979792</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="I8" t="n">
-        <v>21.17709891639413</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="J8" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="K8" t="n">
-        <v>13.76932287133953</v>
+        <v>13.76932287133952</v>
       </c>
       <c r="L8" t="n">
-        <v>48.85965936111263</v>
+        <v>48.85965936111254</v>
       </c>
       <c r="M8" t="n">
-        <v>108.4895542286501</v>
+        <v>108.4895542286498</v>
       </c>
       <c r="N8" t="n">
-        <v>168.1194490961875</v>
+        <v>168.1194490961872</v>
       </c>
       <c r="O8" t="n">
-        <v>219.5012987724247</v>
+        <v>219.5012987724243</v>
       </c>
       <c r="P8" t="n">
-        <v>240.9288681516665</v>
+        <v>240.928868151666</v>
       </c>
       <c r="Q8" t="n">
-        <v>240.9288681516665</v>
+        <v>240.928868151666</v>
       </c>
       <c r="R8" t="n">
-        <v>180.0882448810436</v>
+        <v>240.928868151666</v>
       </c>
       <c r="S8" t="n">
-        <v>180.0882448810436</v>
+        <v>240.928868151666</v>
       </c>
       <c r="T8" t="n">
-        <v>180.0882448810436</v>
+        <v>240.928868151666</v>
       </c>
       <c r="U8" t="n">
-        <v>180.0882448810436</v>
+        <v>240.928868151666</v>
       </c>
       <c r="V8" t="n">
-        <v>180.0882448810436</v>
+        <v>240.928868151666</v>
       </c>
       <c r="W8" t="n">
-        <v>180.0882448810436</v>
+        <v>240.928868151666</v>
       </c>
       <c r="X8" t="n">
-        <v>180.0882448810436</v>
+        <v>240.928868151666</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.0882448810436</v>
+        <v>240.928868151666</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>240.9288681516665</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="C9" t="n">
-        <v>180.0882448810436</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="D9" t="n">
-        <v>180.0882448810436</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="E9" t="n">
-        <v>175.8605797502376</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="F9" t="n">
-        <v>175.8605797502376</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="G9" t="n">
-        <v>115.0199564796148</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="H9" t="n">
-        <v>54.17933320899191</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="I9" t="n">
-        <v>27.04155229117371</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="J9" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="K9" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="L9" t="n">
-        <v>28.00293031888978</v>
+        <v>53.17999411140866</v>
       </c>
       <c r="M9" t="n">
-        <v>87.63282518642724</v>
+        <v>112.809888978946</v>
       </c>
       <c r="N9" t="n">
-        <v>147.2627200539647</v>
+        <v>172.4397838464833</v>
       </c>
       <c r="O9" t="n">
-        <v>206.196115613411</v>
+        <v>231.3731794059296</v>
       </c>
       <c r="P9" t="n">
-        <v>240.9288681516665</v>
+        <v>240.928868151666</v>
       </c>
       <c r="Q9" t="n">
-        <v>240.9288681516665</v>
+        <v>240.928868151666</v>
       </c>
       <c r="R9" t="n">
-        <v>240.9288681516665</v>
+        <v>240.928868151666</v>
       </c>
       <c r="S9" t="n">
-        <v>240.9288681516665</v>
+        <v>240.928868151666</v>
       </c>
       <c r="T9" t="n">
-        <v>240.9288681516665</v>
+        <v>187.3404471749015</v>
       </c>
       <c r="U9" t="n">
-        <v>240.9288681516665</v>
+        <v>187.3404471749015</v>
       </c>
       <c r="V9" t="n">
-        <v>240.9288681516665</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="W9" t="n">
-        <v>240.9288681516665</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="X9" t="n">
-        <v>240.9288681516665</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="Y9" t="n">
-        <v>240.9288681516665</v>
+        <v>65.65920063365604</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="C10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="D10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="E10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="F10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="G10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="H10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="I10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="J10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="K10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="L10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="M10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="N10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="O10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="P10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="R10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="S10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="T10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="U10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="V10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="W10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="X10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.81857736303333</v>
+        <v>4.81857736303332</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.751330532648618</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="C11" t="n">
-        <v>9.751330532648618</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="D11" t="n">
-        <v>9.751330532648618</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="E11" t="n">
-        <v>9.751330532648618</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="F11" t="n">
-        <v>9.751330532648618</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="G11" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="H11" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="I11" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="J11" t="n">
-        <v>13.67191254441012</v>
+        <v>13.67191254441036</v>
       </c>
       <c r="K11" t="n">
-        <v>52.52788553388294</v>
+        <v>52.52788553388336</v>
       </c>
       <c r="L11" t="n">
-        <v>124.7183011151466</v>
+        <v>124.718301115147</v>
       </c>
       <c r="M11" t="n">
-        <v>225.6291823919086</v>
+        <v>225.6291823919089</v>
       </c>
       <c r="N11" t="n">
-        <v>331.1718826730483</v>
+        <v>331.1718826730486</v>
       </c>
       <c r="O11" t="n">
-        <v>422.1649418990621</v>
+        <v>422.1649418990625</v>
       </c>
       <c r="P11" t="n">
-        <v>477.3997621913164</v>
+        <v>477.3997621913166</v>
       </c>
       <c r="Q11" t="n">
-        <v>487.5665266324309</v>
+        <v>487.566526632431</v>
       </c>
       <c r="R11" t="n">
-        <v>436.9573171770455</v>
+        <v>487.566526632431</v>
       </c>
       <c r="S11" t="n">
-        <v>313.8344569163306</v>
+        <v>487.566526632431</v>
       </c>
       <c r="T11" t="n">
-        <v>190.7115966556157</v>
+        <v>364.4436663717161</v>
       </c>
       <c r="U11" t="n">
-        <v>67.58873639490083</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="V11" t="n">
-        <v>9.751330532648618</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="W11" t="n">
-        <v>9.751330532648618</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="X11" t="n">
-        <v>9.751330532648618</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.751330532648618</v>
+        <v>255.9970510540784</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>193.7638544357474</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="C12" t="n">
-        <v>70.64099417503253</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="D12" t="n">
-        <v>9.751330532648618</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="E12" t="n">
-        <v>9.751330532648618</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="F12" t="n">
-        <v>9.751330532648618</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="H12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="I12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="J12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="K12" t="n">
-        <v>43.6372227006573</v>
+        <v>43.63722270065729</v>
       </c>
       <c r="L12" t="n">
         <v>119.310638250222</v>
       </c>
       <c r="M12" t="n">
-        <v>220.1999092241155</v>
+        <v>220.1999092241156</v>
       </c>
       <c r="N12" t="n">
         <v>333.1250381905286</v>
       </c>
       <c r="O12" t="n">
-        <v>421.9866026009619</v>
+        <v>421.9866026009621</v>
       </c>
       <c r="P12" t="n">
-        <v>480.7393491561082</v>
+        <v>480.7393491561083</v>
       </c>
       <c r="Q12" t="n">
-        <v>487.5665266324309</v>
+        <v>487.566526632431</v>
       </c>
       <c r="R12" t="n">
-        <v>440.0095749571772</v>
+        <v>487.566526632431</v>
       </c>
       <c r="S12" t="n">
-        <v>440.0095749571772</v>
+        <v>487.566526632431</v>
       </c>
       <c r="T12" t="n">
-        <v>316.8867146964623</v>
+        <v>487.566526632431</v>
       </c>
       <c r="U12" t="n">
-        <v>316.8867146964623</v>
+        <v>364.4436663717161</v>
       </c>
       <c r="V12" t="n">
-        <v>316.8867146964623</v>
+        <v>364.4436663717161</v>
       </c>
       <c r="W12" t="n">
-        <v>316.8867146964623</v>
+        <v>364.4436663717161</v>
       </c>
       <c r="X12" t="n">
-        <v>316.8867146964623</v>
+        <v>252.1594399656072</v>
       </c>
       <c r="Y12" t="n">
-        <v>316.8867146964623</v>
+        <v>252.1594399656072</v>
       </c>
     </row>
     <row r="13">
@@ -5184,28 +5184,28 @@
         <v>44.03452756838814</v>
       </c>
       <c r="E13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="F13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="G13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="H13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="I13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="J13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="K13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="L13" t="n">
-        <v>17.57578586549605</v>
+        <v>17.57578586549606</v>
       </c>
       <c r="M13" t="n">
         <v>27.94346090360951</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="C14" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="D14" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="E14" t="n">
-        <v>461.6459453003283</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="F14" t="n">
-        <v>338.5230850396134</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="G14" t="n">
-        <v>215.4002247788985</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H14" t="n">
-        <v>92.27736451818357</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I14" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J14" t="n">
-        <v>13.67191254441032</v>
+        <v>13.67191254441019</v>
       </c>
       <c r="K14" t="n">
-        <v>52.52788553388308</v>
+        <v>52.52788553388314</v>
       </c>
       <c r="L14" t="n">
-        <v>124.7183011151467</v>
+        <v>124.718301115147</v>
       </c>
       <c r="M14" t="n">
-        <v>225.6291823919086</v>
+        <v>225.6291823919091</v>
       </c>
       <c r="N14" t="n">
-        <v>331.1718826730482</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O14" t="n">
-        <v>422.164941899062</v>
+        <v>422.1649418990626</v>
       </c>
       <c r="P14" t="n">
-        <v>477.3997621913162</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q14" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R14" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S14" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T14" t="n">
-        <v>487.5665266324309</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U14" t="n">
-        <v>487.5665266324309</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V14" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="W14" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="X14" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="Y14" t="n">
-        <v>487.5665266324309</v>
+        <v>255.9970510540787</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>209.853292593441</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="C15" t="n">
-        <v>209.853292593441</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="D15" t="n">
-        <v>209.853292593441</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="E15" t="n">
-        <v>209.853292593441</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="F15" t="n">
-        <v>209.853292593441</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G15" t="n">
-        <v>90.5680434211973</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H15" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I15" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J15" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K15" t="n">
-        <v>43.63722270065726</v>
+        <v>43.63722270065738</v>
       </c>
       <c r="L15" t="n">
-        <v>119.3106382502219</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M15" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241157</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1250381905285</v>
+        <v>333.1250381905289</v>
       </c>
       <c r="O15" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009624</v>
       </c>
       <c r="P15" t="n">
-        <v>480.7393491561081</v>
+        <v>480.7393491561089</v>
       </c>
       <c r="Q15" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R15" t="n">
-        <v>440.0095749571771</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S15" t="n">
-        <v>440.0095749571771</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T15" t="n">
-        <v>316.8867146964622</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U15" t="n">
-        <v>209.853292593441</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="V15" t="n">
-        <v>209.853292593441</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="W15" t="n">
-        <v>209.853292593441</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="X15" t="n">
-        <v>209.853292593441</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="Y15" t="n">
-        <v>209.853292593441</v>
+        <v>241.3208061110014</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="C16" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D16" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E16" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F16" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G16" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H16" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I16" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J16" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K16" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="L16" t="n">
-        <v>17.57578586549604</v>
+        <v>17.57578586549614</v>
       </c>
       <c r="M16" t="n">
-        <v>27.94346090360948</v>
+        <v>27.94346090360967</v>
       </c>
       <c r="N16" t="n">
-        <v>43.17200764107591</v>
+        <v>43.17200764107618</v>
       </c>
       <c r="O16" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="P16" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="R16" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="S16" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="T16" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="U16" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="V16" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="W16" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="X16" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>132.8741907933635</v>
+        <v>118.1979458502863</v>
       </c>
       <c r="C17" t="n">
-        <v>132.8741907933635</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="D17" t="n">
-        <v>132.8741907933635</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="E17" t="n">
-        <v>132.8741907933635</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="F17" t="n">
-        <v>132.8741907933635</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="G17" t="n">
-        <v>9.751330532648618</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="H17" t="n">
-        <v>9.751330532648618</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="I17" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J17" t="n">
-        <v>13.67191254441002</v>
+        <v>13.67191254440996</v>
       </c>
       <c r="K17" t="n">
-        <v>52.52788553388291</v>
+        <v>52.5278855338828</v>
       </c>
       <c r="L17" t="n">
-        <v>124.7183011151466</v>
+        <v>124.7183011151465</v>
       </c>
       <c r="M17" t="n">
-        <v>225.6291823919086</v>
+        <v>225.6291823919085</v>
       </c>
       <c r="N17" t="n">
         <v>331.1718826730482</v>
@@ -5533,34 +5533,34 @@
         <v>422.1649418990622</v>
       </c>
       <c r="P17" t="n">
-        <v>477.3997621913164</v>
+        <v>477.3997621913167</v>
       </c>
       <c r="Q17" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R17" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="S17" t="n">
-        <v>364.443666371716</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="T17" t="n">
-        <v>255.9970510540784</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="U17" t="n">
-        <v>132.8741907933635</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="V17" t="n">
-        <v>132.8741907933635</v>
+        <v>241.3208061110012</v>
       </c>
       <c r="W17" t="n">
-        <v>132.8741907933635</v>
+        <v>241.3208061110012</v>
       </c>
       <c r="X17" t="n">
-        <v>132.8741907933635</v>
+        <v>118.1979458502863</v>
       </c>
       <c r="Y17" t="n">
-        <v>132.8741907933635</v>
+        <v>118.1979458502863</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>487.5665266324311</v>
+        <v>241.3208061110012</v>
       </c>
       <c r="C18" t="n">
-        <v>487.5665266324311</v>
+        <v>118.1979458502863</v>
       </c>
       <c r="D18" t="n">
-        <v>364.4436663717162</v>
+        <v>118.1979458502863</v>
       </c>
       <c r="E18" t="n">
-        <v>241.3208061110013</v>
+        <v>118.1979458502863</v>
       </c>
       <c r="F18" t="n">
-        <v>118.1979458502864</v>
+        <v>118.1979458502863</v>
       </c>
       <c r="G18" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="H18" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I18" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J18" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="K18" t="n">
-        <v>43.6372227006573</v>
+        <v>43.63722270065728</v>
       </c>
       <c r="L18" t="n">
         <v>119.310638250222</v>
@@ -5624,22 +5624,22 @@
         <v>487.5665266324311</v>
       </c>
       <c r="T18" t="n">
-        <v>487.5665266324311</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="U18" t="n">
-        <v>487.5665266324311</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="V18" t="n">
-        <v>487.5665266324311</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="W18" t="n">
-        <v>487.5665266324311</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="X18" t="n">
-        <v>487.5665266324311</v>
+        <v>241.3208061110012</v>
       </c>
       <c r="Y18" t="n">
-        <v>487.5665266324311</v>
+        <v>241.3208061110012</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.0345275683882</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="C19" t="n">
-        <v>44.0345275683882</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="D19" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="E19" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="F19" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="G19" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="H19" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I19" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J19" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="K19" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="L19" t="n">
         <v>17.57578586549607</v>
       </c>
       <c r="M19" t="n">
-        <v>27.94346090360954</v>
+        <v>27.94346090360955</v>
       </c>
       <c r="N19" t="n">
-        <v>43.172007641076</v>
+        <v>43.17200764107601</v>
       </c>
       <c r="O19" t="n">
-        <v>44.0345275683882</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="P19" t="n">
-        <v>44.0345275683882</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.0345275683882</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="R19" t="n">
-        <v>44.0345275683882</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="S19" t="n">
-        <v>44.0345275683882</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="T19" t="n">
-        <v>44.0345275683882</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="U19" t="n">
-        <v>44.0345275683882</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="V19" t="n">
-        <v>44.0345275683882</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="W19" t="n">
-        <v>44.0345275683882</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="X19" t="n">
-        <v>44.0345275683882</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.0345275683882</v>
+        <v>44.03452756838821</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>118.1979458502866</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="C20" t="n">
-        <v>118.1979458502866</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="D20" t="n">
-        <v>118.1979458502866</v>
+        <v>338.5230850396134</v>
       </c>
       <c r="E20" t="n">
-        <v>118.1979458502866</v>
+        <v>338.5230850396134</v>
       </c>
       <c r="F20" t="n">
-        <v>118.1979458502866</v>
+        <v>215.4002247788985</v>
       </c>
       <c r="G20" t="n">
-        <v>9.751330532648646</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="H20" t="n">
-        <v>9.751330532648646</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="I20" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J20" t="n">
-        <v>13.67191254441025</v>
+        <v>13.67191254441019</v>
       </c>
       <c r="K20" t="n">
-        <v>52.5278855338832</v>
+        <v>52.52788553388319</v>
       </c>
       <c r="L20" t="n">
-        <v>124.7183011151472</v>
+        <v>124.718301115147</v>
       </c>
       <c r="M20" t="n">
-        <v>225.6291823919093</v>
+        <v>225.6291823919088</v>
       </c>
       <c r="N20" t="n">
-        <v>331.1718826730492</v>
+        <v>331.1718826730485</v>
       </c>
       <c r="O20" t="n">
-        <v>422.1649418990633</v>
+        <v>422.1649418990624</v>
       </c>
       <c r="P20" t="n">
-        <v>477.3997621913177</v>
+        <v>477.3997621913167</v>
       </c>
       <c r="Q20" t="n">
-        <v>487.5665266324323</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R20" t="n">
-        <v>487.5665266324323</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="S20" t="n">
-        <v>487.5665266324323</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="T20" t="n">
-        <v>364.443666371717</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="U20" t="n">
-        <v>364.443666371717</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="V20" t="n">
-        <v>364.443666371717</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="W20" t="n">
-        <v>364.443666371717</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="X20" t="n">
-        <v>241.3208061110018</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.3208061110018</v>
+        <v>364.4436663717162</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>118.1979458502866</v>
+        <v>241.3208061110012</v>
       </c>
       <c r="C21" t="n">
-        <v>9.751330532648646</v>
+        <v>241.3208061110012</v>
       </c>
       <c r="D21" t="n">
-        <v>9.751330532648646</v>
+        <v>241.3208061110012</v>
       </c>
       <c r="E21" t="n">
-        <v>9.751330532648646</v>
+        <v>241.3208061110012</v>
       </c>
       <c r="F21" t="n">
-        <v>9.751330532648646</v>
+        <v>209.853292593441</v>
       </c>
       <c r="G21" t="n">
-        <v>9.751330532648646</v>
+        <v>90.5680434211973</v>
       </c>
       <c r="H21" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I21" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J21" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648616</v>
       </c>
       <c r="K21" t="n">
-        <v>43.63722270065756</v>
+        <v>43.6372227006573</v>
       </c>
       <c r="L21" t="n">
-        <v>119.3106382502224</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M21" t="n">
-        <v>220.1999092241161</v>
+        <v>220.1999092241156</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1250381905294</v>
+        <v>333.1250381905287</v>
       </c>
       <c r="O21" t="n">
-        <v>421.986602600963</v>
+        <v>421.9866026009621</v>
       </c>
       <c r="P21" t="n">
-        <v>480.7393491561095</v>
+        <v>480.7393491561085</v>
       </c>
       <c r="Q21" t="n">
-        <v>487.5665266324323</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R21" t="n">
-        <v>487.5665266324323</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="S21" t="n">
-        <v>487.5665266324323</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="T21" t="n">
-        <v>487.5665266324323</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="U21" t="n">
-        <v>487.5665266324323</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="V21" t="n">
-        <v>487.5665266324323</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="W21" t="n">
-        <v>487.5665266324323</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="X21" t="n">
-        <v>364.443666371717</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="Y21" t="n">
-        <v>241.3208061110018</v>
+        <v>241.3208061110012</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="C22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="D22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="E22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="F22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="G22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="H22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="K22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="L22" t="n">
-        <v>17.57578586549618</v>
+        <v>17.57578586549607</v>
       </c>
       <c r="M22" t="n">
-        <v>27.94346090360974</v>
+        <v>27.94346090360955</v>
       </c>
       <c r="N22" t="n">
-        <v>43.17200764107628</v>
+        <v>43.17200764107601</v>
       </c>
       <c r="O22" t="n">
-        <v>44.03452756838855</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="P22" t="n">
-        <v>44.03452756838855</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.03452756838855</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="R22" t="n">
-        <v>44.03452756838855</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="S22" t="n">
-        <v>44.03452756838855</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="T22" t="n">
-        <v>44.03452756838855</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="U22" t="n">
-        <v>44.03452756838855</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="V22" t="n">
-        <v>44.03452756838855</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="W22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="X22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>323.543210368595</v>
+        <v>362.6077803752068</v>
       </c>
       <c r="C23" t="n">
-        <v>323.543210368595</v>
+        <v>362.6077803752068</v>
       </c>
       <c r="D23" t="n">
-        <v>323.543210368595</v>
+        <v>362.6077803752068</v>
       </c>
       <c r="E23" t="n">
-        <v>323.543210368595</v>
+        <v>362.6077803752068</v>
       </c>
       <c r="F23" t="n">
-        <v>323.543210368595</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="G23" t="n">
-        <v>323.543210368595</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="H23" t="n">
         <v>26.61094904162007</v>
@@ -6013,28 +6013,28 @@
         <v>1330.547452081003</v>
       </c>
       <c r="R23" t="n">
-        <v>1326.213435941675</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="S23" t="n">
-        <v>1209.475527369096</v>
+        <v>1290.179425412218</v>
       </c>
       <c r="T23" t="n">
-        <v>995.5368730357685</v>
+        <v>1290.179425412218</v>
       </c>
       <c r="U23" t="n">
-        <v>995.5368730357685</v>
+        <v>1034.60144304238</v>
       </c>
       <c r="V23" t="n">
-        <v>995.5368730357685</v>
+        <v>1034.60144304238</v>
       </c>
       <c r="W23" t="n">
-        <v>995.5368730357685</v>
+        <v>698.6046117087935</v>
       </c>
       <c r="X23" t="n">
-        <v>659.5400417021817</v>
+        <v>698.6046117087935</v>
       </c>
       <c r="Y23" t="n">
-        <v>659.5400417021817</v>
+        <v>362.6077803752068</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.61094904162007</v>
+        <v>281.1317225370079</v>
       </c>
       <c r="C24" t="n">
-        <v>26.61094904162007</v>
+        <v>281.1317225370079</v>
       </c>
       <c r="D24" t="n">
-        <v>26.61094904162007</v>
+        <v>151.0427551584883</v>
       </c>
       <c r="E24" t="n">
-        <v>26.61094904162007</v>
+        <v>151.0427551584883</v>
       </c>
       <c r="F24" t="n">
         <v>26.61094904162007</v>
@@ -6092,28 +6092,28 @@
         <v>1090.638518367583</v>
       </c>
       <c r="R24" t="n">
-        <v>1067.553823052475</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="S24" t="n">
-        <v>954.3316984684568</v>
+        <v>977.4163937835649</v>
       </c>
       <c r="T24" t="n">
-        <v>782.0586681932939</v>
+        <v>805.143363508402</v>
       </c>
       <c r="U24" t="n">
-        <v>572.0724146683328</v>
+        <v>595.1571099834409</v>
       </c>
       <c r="V24" t="n">
-        <v>349.5324130393999</v>
+        <v>511.2489684037211</v>
       </c>
       <c r="W24" t="n">
-        <v>119.4151671726868</v>
+        <v>281.1317225370079</v>
       </c>
       <c r="X24" t="n">
-        <v>26.61094904162007</v>
+        <v>281.1317225370079</v>
       </c>
       <c r="Y24" t="n">
-        <v>26.61094904162007</v>
+        <v>281.1317225370079</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="C25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="D25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="E25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="F25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="G25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="H25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="I25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="J25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="K25" t="n">
-        <v>1074.487680615031</v>
+        <v>55.16279074493481</v>
       </c>
       <c r="L25" t="n">
-        <v>1130.462976446664</v>
+        <v>111.1380865765677</v>
       </c>
       <c r="M25" t="n">
-        <v>1191.598961544735</v>
+        <v>172.2740716746393</v>
       </c>
       <c r="N25" t="n">
-        <v>1256.388661401686</v>
+        <v>237.0637715315906</v>
       </c>
       <c r="O25" t="n">
-        <v>1303.028927939927</v>
+        <v>283.7040380698308</v>
       </c>
       <c r="P25" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="Q25" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="R25" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="S25" t="n">
-        <v>1330.547452081003</v>
+        <v>249.7230102249767</v>
       </c>
       <c r="T25" t="n">
-        <v>1330.547452081003</v>
+        <v>249.7230102249767</v>
       </c>
       <c r="U25" t="n">
-        <v>1330.547452081003</v>
+        <v>249.7230102249767</v>
       </c>
       <c r="V25" t="n">
-        <v>1330.547452081003</v>
+        <v>249.7230102249767</v>
       </c>
       <c r="W25" t="n">
-        <v>1330.547452081003</v>
+        <v>249.7230102249767</v>
       </c>
       <c r="X25" t="n">
-        <v>1269.047900095073</v>
+        <v>249.7230102249767</v>
       </c>
       <c r="Y25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26.61094904162007</v>
+        <v>752.7299629041704</v>
       </c>
       <c r="C26" t="n">
-        <v>26.61094904162007</v>
+        <v>752.7299629041704</v>
       </c>
       <c r="D26" t="n">
-        <v>26.61094904162007</v>
+        <v>752.7299629041704</v>
       </c>
       <c r="E26" t="n">
-        <v>26.61094904162007</v>
+        <v>416.7331315705835</v>
       </c>
       <c r="F26" t="n">
-        <v>26.61094904162007</v>
+        <v>416.7331315705835</v>
       </c>
       <c r="G26" t="n">
-        <v>26.61094904162007</v>
+        <v>80.7363002369967</v>
       </c>
       <c r="H26" t="n">
-        <v>26.61094904162007</v>
+        <v>80.7363002369967</v>
       </c>
       <c r="I26" t="n">
         <v>26.61094904162007</v>
       </c>
       <c r="J26" t="n">
-        <v>91.81170871208263</v>
+        <v>91.81170871208292</v>
       </c>
       <c r="K26" t="n">
-        <v>222.5107827646402</v>
+        <v>222.5107827646407</v>
       </c>
       <c r="L26" t="n">
-        <v>408.6406865371933</v>
+        <v>408.6406865371939</v>
       </c>
       <c r="M26" t="n">
-        <v>636.3312022157978</v>
+        <v>636.3312022157984</v>
       </c>
       <c r="N26" t="n">
-        <v>870.7049639274289</v>
+        <v>870.7049639274294</v>
       </c>
       <c r="O26" t="n">
-        <v>1083.349541243458</v>
+        <v>1083.349541243459</v>
       </c>
       <c r="P26" t="n">
         <v>1242.411117718199</v>
       </c>
       <c r="Q26" t="n">
-        <v>1330.547452081003</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="R26" t="n">
-        <v>1326.213435941675</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="S26" t="n">
-        <v>1209.475527369096</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="T26" t="n">
-        <v>995.5368730357685</v>
+        <v>1116.608797747676</v>
       </c>
       <c r="U26" t="n">
-        <v>739.9588906659309</v>
+        <v>1116.608797747676</v>
       </c>
       <c r="V26" t="n">
-        <v>403.9620593323442</v>
+        <v>1116.608797747676</v>
       </c>
       <c r="W26" t="n">
-        <v>67.96522799875743</v>
+        <v>1116.608797747676</v>
       </c>
       <c r="X26" t="n">
-        <v>26.61094904162007</v>
+        <v>780.611966414089</v>
       </c>
       <c r="Y26" t="n">
-        <v>26.61094904162007</v>
+        <v>752.7299629041704</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>431.7859529769157</v>
+        <v>269.933848181388</v>
       </c>
       <c r="C27" t="n">
-        <v>281.1317225370079</v>
+        <v>269.933848181388</v>
       </c>
       <c r="D27" t="n">
-        <v>151.0427551584883</v>
+        <v>269.933848181388</v>
       </c>
       <c r="E27" t="n">
-        <v>151.0427551584883</v>
+        <v>269.933848181388</v>
       </c>
       <c r="F27" t="n">
-        <v>26.61094904162007</v>
+        <v>145.5020420645198</v>
       </c>
       <c r="G27" t="n">
         <v>26.61094904162007</v>
@@ -6305,7 +6305,7 @@
         <v>26.61094904162007</v>
       </c>
       <c r="J27" t="n">
-        <v>53.2124743093821</v>
+        <v>53.21247430938211</v>
       </c>
       <c r="K27" t="n">
         <v>149.479354091794</v>
@@ -6332,25 +6332,25 @@
         <v>1090.638518367583</v>
       </c>
       <c r="S27" t="n">
-        <v>1090.638518367583</v>
+        <v>977.4163937835649</v>
       </c>
       <c r="T27" t="n">
-        <v>1090.638518367583</v>
+        <v>805.143363508402</v>
       </c>
       <c r="U27" t="n">
-        <v>1090.638518367583</v>
+        <v>638.5551427558692</v>
       </c>
       <c r="V27" t="n">
-        <v>1090.638518367583</v>
+        <v>638.5551427558692</v>
       </c>
       <c r="W27" t="n">
-        <v>860.5212725008701</v>
+        <v>638.5551427558692</v>
       </c>
       <c r="X27" t="n">
-        <v>762.8965043423698</v>
+        <v>449.2480651058808</v>
       </c>
       <c r="Y27" t="n">
-        <v>583.5822874178771</v>
+        <v>269.933848181388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26.61094904162007</v>
+        <v>193.8851832416389</v>
       </c>
       <c r="C28" t="n">
-        <v>26.61094904162007</v>
+        <v>193.8851832416389</v>
       </c>
       <c r="D28" t="n">
-        <v>26.61094904162007</v>
+        <v>193.8851832416389</v>
       </c>
       <c r="E28" t="n">
-        <v>26.61094904162007</v>
+        <v>193.8851832416389</v>
       </c>
       <c r="F28" t="n">
-        <v>26.61094904162007</v>
+        <v>193.8851832416389</v>
       </c>
       <c r="G28" t="n">
         <v>26.61094904162007</v>
@@ -6387,7 +6387,7 @@
         <v>26.61094904162007</v>
       </c>
       <c r="K28" t="n">
-        <v>55.16279074493481</v>
+        <v>55.16279074493482</v>
       </c>
       <c r="L28" t="n">
         <v>111.1380865765677</v>
@@ -6429,7 +6429,7 @@
         <v>311.2225622109074</v>
       </c>
       <c r="Y28" t="n">
-        <v>211.8189677329214</v>
+        <v>311.2225622109074</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>26.61094904162007</v>
+        <v>362.6077803752068</v>
       </c>
       <c r="C29" t="n">
         <v>26.61094904162007</v>
@@ -6463,19 +6463,19 @@
         <v>26.61094904162007</v>
       </c>
       <c r="J29" t="n">
-        <v>91.81170871208263</v>
+        <v>91.81170871208258</v>
       </c>
       <c r="K29" t="n">
         <v>222.5107827646402</v>
       </c>
       <c r="L29" t="n">
-        <v>408.6406865371933</v>
+        <v>408.6406865371934</v>
       </c>
       <c r="M29" t="n">
         <v>636.3312022157978</v>
       </c>
       <c r="N29" t="n">
-        <v>870.7049639274287</v>
+        <v>870.7049639274289</v>
       </c>
       <c r="O29" t="n">
         <v>1083.349541243458</v>
@@ -6487,28 +6487,28 @@
         <v>1330.547452081003</v>
       </c>
       <c r="R29" t="n">
-        <v>1326.213435941675</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="S29" t="n">
-        <v>1209.475527369096</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="T29" t="n">
-        <v>995.5368730357687</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="U29" t="n">
-        <v>739.9588906659311</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="V29" t="n">
-        <v>403.9620593323443</v>
+        <v>1034.60144304238</v>
       </c>
       <c r="W29" t="n">
-        <v>67.96522799875754</v>
+        <v>1034.60144304238</v>
       </c>
       <c r="X29" t="n">
-        <v>26.61094904162007</v>
+        <v>698.6046117087935</v>
       </c>
       <c r="Y29" t="n">
-        <v>26.61094904162007</v>
+        <v>698.6046117087935</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>948.2881682808795</v>
+        <v>66.41490942182477</v>
       </c>
       <c r="C30" t="n">
-        <v>878.4922177706102</v>
+        <v>66.41490942182477</v>
       </c>
       <c r="D30" t="n">
-        <v>748.4032503920905</v>
+        <v>66.41490942182477</v>
       </c>
       <c r="E30" t="n">
-        <v>611.9567595029782</v>
+        <v>66.41490942182477</v>
       </c>
       <c r="F30" t="n">
-        <v>487.52495338611</v>
+        <v>66.41490942182477</v>
       </c>
       <c r="G30" t="n">
-        <v>368.6338603632103</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="H30" t="n">
-        <v>291.6238660749046</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="I30" t="n">
-        <v>266.5198827550406</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="J30" t="n">
-        <v>293.1214080228026</v>
+        <v>53.2124743093821</v>
       </c>
       <c r="K30" t="n">
-        <v>389.3882878052145</v>
+        <v>149.479354091794</v>
       </c>
       <c r="L30" t="n">
-        <v>548.9406394943622</v>
+        <v>309.0317057809418</v>
       </c>
       <c r="M30" t="n">
-        <v>747.7126726293246</v>
+        <v>507.8037389159042</v>
       </c>
       <c r="N30" t="n">
-        <v>961.1112292119611</v>
+        <v>721.2022954985407</v>
       </c>
       <c r="O30" t="n">
-        <v>1141.88635081387</v>
+        <v>901.9774171004491</v>
       </c>
       <c r="P30" t="n">
-        <v>1274.407830257515</v>
+        <v>1034.498896544095</v>
       </c>
       <c r="Q30" t="n">
-        <v>1330.547452081003</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="R30" t="n">
-        <v>1330.547452081003</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="S30" t="n">
-        <v>1330.547452081003</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="T30" t="n">
-        <v>1158.274421805841</v>
+        <v>918.3654880924203</v>
       </c>
       <c r="U30" t="n">
-        <v>948.2881682808795</v>
+        <v>708.3792345674592</v>
       </c>
       <c r="V30" t="n">
-        <v>948.2881682808795</v>
+        <v>485.8392329385263</v>
       </c>
       <c r="W30" t="n">
-        <v>948.2881682808795</v>
+        <v>255.7219870718131</v>
       </c>
       <c r="X30" t="n">
-        <v>948.2881682808795</v>
+        <v>66.41490942182477</v>
       </c>
       <c r="Y30" t="n">
-        <v>948.2881682808795</v>
+        <v>66.41490942182477</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="C31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="D31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="E31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="F31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="G31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="H31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="I31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="J31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="K31" t="n">
-        <v>1074.487680615031</v>
+        <v>55.16279074493481</v>
       </c>
       <c r="L31" t="n">
-        <v>1130.462976446664</v>
+        <v>111.1380865765677</v>
       </c>
       <c r="M31" t="n">
-        <v>1191.598961544735</v>
+        <v>172.2740716746393</v>
       </c>
       <c r="N31" t="n">
-        <v>1256.388661401687</v>
+        <v>237.0637715315906</v>
       </c>
       <c r="O31" t="n">
-        <v>1303.028927939927</v>
+        <v>283.7040380698308</v>
       </c>
       <c r="P31" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="Q31" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="R31" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="S31" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="T31" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="U31" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="V31" t="n">
-        <v>1329.266240980539</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="W31" t="n">
-        <v>1045.935838911716</v>
+        <v>260.691271258637</v>
       </c>
       <c r="X31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="Y31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26.61094904162007</v>
+        <v>698.6046117087938</v>
       </c>
       <c r="C32" t="n">
-        <v>26.61094904162007</v>
+        <v>362.6077803752069</v>
       </c>
       <c r="D32" t="n">
         <v>26.61094904162007</v>
@@ -6703,16 +6703,16 @@
         <v>91.81170871208292</v>
       </c>
       <c r="K32" t="n">
-        <v>222.5107827646405</v>
+        <v>222.5107827646407</v>
       </c>
       <c r="L32" t="n">
-        <v>408.6406865371937</v>
+        <v>408.640686537194</v>
       </c>
       <c r="M32" t="n">
-        <v>636.3312022157984</v>
+        <v>636.3312022157986</v>
       </c>
       <c r="N32" t="n">
-        <v>870.7049639274294</v>
+        <v>870.7049639274296</v>
       </c>
       <c r="O32" t="n">
         <v>1083.349541243459</v>
@@ -6724,28 +6724,28 @@
         <v>1330.547452081004</v>
       </c>
       <c r="R32" t="n">
-        <v>1326.213435941675</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="S32" t="n">
-        <v>1209.475527369097</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="T32" t="n">
-        <v>995.536873035769</v>
+        <v>1116.608797747676</v>
       </c>
       <c r="U32" t="n">
-        <v>739.9588906659313</v>
+        <v>1116.608797747676</v>
       </c>
       <c r="V32" t="n">
+        <v>1116.608797747676</v>
+      </c>
+      <c r="W32" t="n">
+        <v>780.611966414089</v>
+      </c>
+      <c r="X32" t="n">
         <v>698.6046117087938</v>
       </c>
-      <c r="W32" t="n">
+      <c r="Y32" t="n">
         <v>698.6046117087938</v>
-      </c>
-      <c r="X32" t="n">
-        <v>362.6077803752069</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>26.61094904162007</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>163.0574399307324</v>
+        <v>287.4892460476005</v>
       </c>
       <c r="C33" t="n">
-        <v>163.0574399307324</v>
+        <v>287.4892460476005</v>
       </c>
       <c r="D33" t="n">
-        <v>163.0574399307324</v>
+        <v>287.4892460476005</v>
       </c>
       <c r="E33" t="n">
-        <v>26.61094904162007</v>
+        <v>151.0427551584883</v>
       </c>
       <c r="F33" t="n">
         <v>26.61094904162007</v>
@@ -6803,28 +6803,28 @@
         <v>1090.638518367583</v>
       </c>
       <c r="R33" t="n">
-        <v>1067.553823052475</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="S33" t="n">
-        <v>954.3316984684568</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="T33" t="n">
-        <v>782.0586681932939</v>
+        <v>929.453571193235</v>
       </c>
       <c r="U33" t="n">
-        <v>572.0724146683328</v>
+        <v>929.453571193235</v>
       </c>
       <c r="V33" t="n">
-        <v>349.5324130393999</v>
+        <v>706.9135695643021</v>
       </c>
       <c r="W33" t="n">
-        <v>163.0574399307324</v>
+        <v>476.7963236975889</v>
       </c>
       <c r="X33" t="n">
-        <v>163.0574399307324</v>
+        <v>287.4892460476005</v>
       </c>
       <c r="Y33" t="n">
-        <v>163.0574399307324</v>
+        <v>287.4892460476005</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.21088876194329</v>
+        <v>45.24321703173166</v>
       </c>
       <c r="C34" t="n">
-        <v>28.21088876194329</v>
+        <v>45.24321703173166</v>
       </c>
       <c r="D34" t="n">
-        <v>28.21088876194329</v>
+        <v>45.24321703173166</v>
       </c>
       <c r="E34" t="n">
-        <v>28.21088876194329</v>
+        <v>45.24321703173166</v>
       </c>
       <c r="F34" t="n">
-        <v>28.21088876194329</v>
+        <v>45.24321703173166</v>
       </c>
       <c r="G34" t="n">
-        <v>28.21088876194329</v>
+        <v>45.24321703173166</v>
       </c>
       <c r="H34" t="n">
-        <v>28.21088876194329</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="I34" t="n">
-        <v>28.21088876194329</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="J34" t="n">
         <v>26.61094904162007</v>
@@ -6879,31 +6879,31 @@
         <v>311.2225622109074</v>
       </c>
       <c r="Q34" t="n">
-        <v>293.7961200852155</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="R34" t="n">
-        <v>213.9513874346045</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="S34" t="n">
-        <v>28.21088876194329</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="T34" t="n">
-        <v>28.21088876194329</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="U34" t="n">
-        <v>28.21088876194329</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="V34" t="n">
-        <v>28.21088876194329</v>
+        <v>45.24321703173166</v>
       </c>
       <c r="W34" t="n">
-        <v>28.21088876194329</v>
+        <v>45.24321703173166</v>
       </c>
       <c r="X34" t="n">
-        <v>28.21088876194329</v>
+        <v>45.24321703173166</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.21088876194329</v>
+        <v>45.24321703173166</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>664.3204593516216</v>
+        <v>994.5506207474166</v>
       </c>
       <c r="C35" t="n">
-        <v>664.3204593516216</v>
+        <v>658.5537894138299</v>
       </c>
       <c r="D35" t="n">
-        <v>664.3204593516216</v>
+        <v>658.5537894138299</v>
       </c>
       <c r="E35" t="n">
-        <v>664.3204593516216</v>
+        <v>658.5537894138299</v>
       </c>
       <c r="F35" t="n">
-        <v>664.3204593516216</v>
+        <v>322.5569580802432</v>
       </c>
       <c r="G35" t="n">
-        <v>328.3236280180348</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="H35" t="n">
-        <v>26.61094904162008</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="I35" t="n">
-        <v>26.61094904162008</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="J35" t="n">
-        <v>91.81170871208246</v>
+        <v>91.81170871208263</v>
       </c>
       <c r="K35" t="n">
-        <v>222.51078276464</v>
+        <v>222.5107827646402</v>
       </c>
       <c r="L35" t="n">
-        <v>408.6406865371932</v>
+        <v>408.6406865371935</v>
       </c>
       <c r="M35" t="n">
-        <v>636.3312022157977</v>
+        <v>636.3312022157979</v>
       </c>
       <c r="N35" t="n">
-        <v>870.7049639274287</v>
+        <v>870.7049639274289</v>
       </c>
       <c r="O35" t="n">
         <v>1083.349541243458</v>
@@ -6958,31 +6958,31 @@
         <v>1242.411117718199</v>
       </c>
       <c r="Q35" t="n">
-        <v>1330.547452081004</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="R35" t="n">
-        <v>1330.547452081004</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="S35" t="n">
-        <v>1330.547452081004</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="T35" t="n">
-        <v>1330.547452081004</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="U35" t="n">
-        <v>1330.547452081004</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="V35" t="n">
-        <v>1330.547452081004</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="W35" t="n">
-        <v>1330.547452081004</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="X35" t="n">
-        <v>1000.317290685208</v>
+        <v>994.5506207474166</v>
       </c>
       <c r="Y35" t="n">
-        <v>664.3204593516216</v>
+        <v>994.5506207474166</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>128.7249266497898</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="C36" t="n">
-        <v>128.7249266497898</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7249266497898</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="E36" t="n">
-        <v>128.7249266497898</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="F36" t="n">
-        <v>128.7249266497898</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="G36" t="n">
-        <v>128.7249266497898</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="H36" t="n">
-        <v>51.71493236148418</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="I36" t="n">
-        <v>26.61094904162008</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="J36" t="n">
-        <v>53.21247430938212</v>
+        <v>53.2124743093821</v>
       </c>
       <c r="K36" t="n">
         <v>149.479354091794</v>
@@ -7040,28 +7040,28 @@
         <v>1090.638518367583</v>
       </c>
       <c r="R36" t="n">
-        <v>1076.863582529578</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="S36" t="n">
-        <v>963.64145794556</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="T36" t="n">
-        <v>791.3684276703971</v>
+        <v>918.3654880924203</v>
       </c>
       <c r="U36" t="n">
-        <v>581.3821741454359</v>
+        <v>708.3792345674592</v>
       </c>
       <c r="V36" t="n">
-        <v>358.842172516503</v>
+        <v>708.3792345674592</v>
       </c>
       <c r="W36" t="n">
-        <v>128.7249266497898</v>
+        <v>478.2619887007461</v>
       </c>
       <c r="X36" t="n">
-        <v>128.7249266497898</v>
+        <v>357.7215004070742</v>
       </c>
       <c r="Y36" t="n">
-        <v>128.7249266497898</v>
+        <v>178.4072834825814</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1330.547452081004</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="C37" t="n">
-        <v>1330.547452081004</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="D37" t="n">
-        <v>1330.547452081004</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="E37" t="n">
-        <v>1330.547452081004</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="F37" t="n">
-        <v>1173.221517293977</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="G37" t="n">
-        <v>1045.935838911717</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="H37" t="n">
-        <v>1045.935838911717</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="I37" t="n">
-        <v>1045.935838911717</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="J37" t="n">
-        <v>1045.935838911717</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="K37" t="n">
-        <v>1074.487680615031</v>
+        <v>55.16279074493481</v>
       </c>
       <c r="L37" t="n">
-        <v>1130.462976446664</v>
+        <v>111.1380865765677</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.598961544736</v>
+        <v>172.2740716746393</v>
       </c>
       <c r="N37" t="n">
-        <v>1256.388661401687</v>
+        <v>237.0637715315906</v>
       </c>
       <c r="O37" t="n">
-        <v>1303.028927939927</v>
+        <v>283.7040380698308</v>
       </c>
       <c r="P37" t="n">
-        <v>1330.547452081004</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="Q37" t="n">
-        <v>1330.547452081004</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="R37" t="n">
-        <v>1330.547452081004</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="S37" t="n">
-        <v>1330.547452081004</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="T37" t="n">
-        <v>1330.547452081004</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="U37" t="n">
-        <v>1330.547452081004</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="V37" t="n">
-        <v>1330.547452081004</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="W37" t="n">
-        <v>1330.547452081004</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="X37" t="n">
-        <v>1330.547452081004</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="Y37" t="n">
-        <v>1330.547452081004</v>
+        <v>26.61094904162007</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>698.6046117087935</v>
+        <v>1034.601443042381</v>
       </c>
       <c r="C38" t="n">
-        <v>698.6046117087935</v>
+        <v>1034.601443042381</v>
       </c>
       <c r="D38" t="n">
-        <v>698.6046117087935</v>
+        <v>1034.601443042381</v>
       </c>
       <c r="E38" t="n">
-        <v>362.6077803752068</v>
+        <v>698.6046117087938</v>
       </c>
       <c r="F38" t="n">
-        <v>26.61094904162007</v>
+        <v>362.6077803752069</v>
       </c>
       <c r="G38" t="n">
         <v>26.61094904162007</v>
@@ -7174,52 +7174,52 @@
         <v>26.61094904162007</v>
       </c>
       <c r="J38" t="n">
-        <v>91.81170871208263</v>
+        <v>91.81170871208292</v>
       </c>
       <c r="K38" t="n">
-        <v>222.5107827646402</v>
+        <v>222.5107827646407</v>
       </c>
       <c r="L38" t="n">
-        <v>408.6406865371933</v>
+        <v>408.640686537194</v>
       </c>
       <c r="M38" t="n">
-        <v>636.3312022157978</v>
+        <v>636.3312022157986</v>
       </c>
       <c r="N38" t="n">
-        <v>870.7049639274289</v>
+        <v>870.7049639274296</v>
       </c>
       <c r="O38" t="n">
-        <v>1083.349541243458</v>
+        <v>1083.349541243459</v>
       </c>
       <c r="P38" t="n">
         <v>1242.411117718199</v>
       </c>
       <c r="Q38" t="n">
-        <v>1330.547452081003</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="R38" t="n">
-        <v>1330.547452081003</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="S38" t="n">
-        <v>1330.547452081003</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="T38" t="n">
-        <v>1330.547452081003</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="U38" t="n">
-        <v>1330.547452081003</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="V38" t="n">
-        <v>1034.60144304238</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="W38" t="n">
-        <v>698.6046117087935</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="X38" t="n">
-        <v>698.6046117087935</v>
+        <v>1330.547452081004</v>
       </c>
       <c r="Y38" t="n">
-        <v>698.6046117087935</v>
+        <v>1330.547452081004</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>163.0574399307324</v>
+        <v>485.8392329385263</v>
       </c>
       <c r="C39" t="n">
-        <v>163.0574399307324</v>
+        <v>412.0375003321518</v>
       </c>
       <c r="D39" t="n">
-        <v>163.0574399307324</v>
+        <v>281.9485329536321</v>
       </c>
       <c r="E39" t="n">
-        <v>26.61094904162007</v>
+        <v>145.5020420645198</v>
       </c>
       <c r="F39" t="n">
-        <v>26.61094904162007</v>
+        <v>145.5020420645198</v>
       </c>
       <c r="G39" t="n">
         <v>26.61094904162007</v>
@@ -7253,7 +7253,7 @@
         <v>26.61094904162007</v>
       </c>
       <c r="J39" t="n">
-        <v>53.2124743093821</v>
+        <v>53.21247430938211</v>
       </c>
       <c r="K39" t="n">
         <v>149.479354091794</v>
@@ -7280,25 +7280,25 @@
         <v>1090.638518367583</v>
       </c>
       <c r="S39" t="n">
-        <v>977.4163937835649</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="T39" t="n">
-        <v>805.143363508402</v>
+        <v>918.3654880924203</v>
       </c>
       <c r="U39" t="n">
-        <v>595.1571099834409</v>
+        <v>708.3792345674592</v>
       </c>
       <c r="V39" t="n">
-        <v>372.617108354508</v>
+        <v>485.8392329385263</v>
       </c>
       <c r="W39" t="n">
-        <v>163.0574399307324</v>
+        <v>485.8392329385263</v>
       </c>
       <c r="X39" t="n">
-        <v>163.0574399307324</v>
+        <v>485.8392329385263</v>
       </c>
       <c r="Y39" t="n">
-        <v>163.0574399307324</v>
+        <v>485.8392329385263</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.24321703173166</v>
+        <v>126.0145435196061</v>
       </c>
       <c r="C40" t="n">
-        <v>45.24321703173166</v>
+        <v>126.0145435196061</v>
       </c>
       <c r="D40" t="n">
-        <v>45.24321703173166</v>
+        <v>126.0145435196061</v>
       </c>
       <c r="E40" t="n">
-        <v>45.24321703173166</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="F40" t="n">
         <v>26.61094904162007</v>
@@ -7335,7 +7335,7 @@
         <v>26.61094904162007</v>
       </c>
       <c r="K40" t="n">
-        <v>55.16279074493481</v>
+        <v>55.16279074493482</v>
       </c>
       <c r="L40" t="n">
         <v>111.1380865765677</v>
@@ -7368,16 +7368,16 @@
         <v>311.2225622109074</v>
       </c>
       <c r="V40" t="n">
-        <v>45.24321703173166</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="W40" t="n">
-        <v>45.24321703173166</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="X40" t="n">
-        <v>45.24321703173166</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="Y40" t="n">
-        <v>45.24321703173166</v>
+        <v>311.2225622109074</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>698.6046117087934</v>
+        <v>1213.809543508424</v>
       </c>
       <c r="C41" t="n">
-        <v>698.6046117087934</v>
+        <v>1213.809543508424</v>
       </c>
       <c r="D41" t="n">
-        <v>362.6077803752067</v>
+        <v>1213.809543508424</v>
       </c>
       <c r="E41" t="n">
-        <v>362.6077803752067</v>
+        <v>1000.317290685208</v>
       </c>
       <c r="F41" t="n">
-        <v>26.61094904162006</v>
+        <v>664.3204593516214</v>
       </c>
       <c r="G41" t="n">
-        <v>26.61094904162006</v>
+        <v>328.3236280180348</v>
       </c>
       <c r="H41" t="n">
         <v>26.61094904162006</v>
@@ -7411,16 +7411,16 @@
         <v>26.61094904162006</v>
       </c>
       <c r="J41" t="n">
-        <v>91.81170871208263</v>
+        <v>91.81170871208258</v>
       </c>
       <c r="K41" t="n">
         <v>222.5107827646402</v>
       </c>
       <c r="L41" t="n">
-        <v>408.6406865371935</v>
+        <v>408.6406865371934</v>
       </c>
       <c r="M41" t="n">
-        <v>636.3312022157977</v>
+        <v>636.3312022157978</v>
       </c>
       <c r="N41" t="n">
         <v>870.7049639274287</v>
@@ -7435,28 +7435,28 @@
         <v>1330.547452081003</v>
       </c>
       <c r="R41" t="n">
-        <v>1326.213435941675</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="S41" t="n">
-        <v>1209.475527369096</v>
+        <v>1213.809543508424</v>
       </c>
       <c r="T41" t="n">
-        <v>1034.60144304238</v>
+        <v>1213.809543508424</v>
       </c>
       <c r="U41" t="n">
-        <v>1034.60144304238</v>
+        <v>1213.809543508424</v>
       </c>
       <c r="V41" t="n">
-        <v>1034.60144304238</v>
+        <v>1213.809543508424</v>
       </c>
       <c r="W41" t="n">
-        <v>1034.60144304238</v>
+        <v>1213.809543508424</v>
       </c>
       <c r="X41" t="n">
-        <v>1034.60144304238</v>
+        <v>1213.809543508424</v>
       </c>
       <c r="Y41" t="n">
-        <v>698.6046117087934</v>
+        <v>1213.809543508424</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>26.61094904162006</v>
+        <v>226.8815189014094</v>
       </c>
       <c r="C42" t="n">
-        <v>26.61094904162006</v>
+        <v>76.22728846150159</v>
       </c>
       <c r="D42" t="n">
-        <v>26.61094904162006</v>
+        <v>76.22728846150159</v>
       </c>
       <c r="E42" t="n">
         <v>26.61094904162006</v>
@@ -7520,22 +7520,22 @@
         <v>977.4163937835649</v>
       </c>
       <c r="T42" t="n">
-        <v>810.3787479027203</v>
+        <v>977.4163937835649</v>
       </c>
       <c r="U42" t="n">
-        <v>810.3787479027203</v>
+        <v>977.4163937835649</v>
       </c>
       <c r="V42" t="n">
-        <v>587.8387462737874</v>
+        <v>977.4163937835649</v>
       </c>
       <c r="W42" t="n">
-        <v>357.7215004070742</v>
+        <v>747.2991479168518</v>
       </c>
       <c r="X42" t="n">
-        <v>357.7215004070742</v>
+        <v>557.9920702668635</v>
       </c>
       <c r="Y42" t="n">
-        <v>178.4072834825814</v>
+        <v>378.6778533423707</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>293.7961200852155</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="C43" t="n">
-        <v>293.7961200852155</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="D43" t="n">
-        <v>138.1630069877303</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="E43" t="n">
         <v>26.61094904162006</v>
@@ -7590,31 +7590,31 @@
         <v>311.2225622109074</v>
       </c>
       <c r="Q43" t="n">
-        <v>293.7961200852155</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="R43" t="n">
-        <v>293.7961200852155</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="S43" t="n">
-        <v>293.7961200852155</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="T43" t="n">
-        <v>293.7961200852155</v>
+        <v>311.2225622109074</v>
       </c>
       <c r="U43" t="n">
-        <v>293.7961200852155</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="V43" t="n">
-        <v>293.7961200852155</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="W43" t="n">
-        <v>293.7961200852155</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="X43" t="n">
-        <v>293.7961200852155</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="Y43" t="n">
-        <v>293.7961200852155</v>
+        <v>26.61094904162006</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>541.8158808412511</v>
+        <v>1074.969469711165</v>
       </c>
       <c r="C44" t="n">
-        <v>541.8158808412511</v>
+        <v>738.9726383775787</v>
       </c>
       <c r="D44" t="n">
-        <v>205.8190495076644</v>
+        <v>402.9758070439921</v>
       </c>
       <c r="E44" t="n">
-        <v>205.8190495076644</v>
+        <v>402.9758070439921</v>
       </c>
       <c r="F44" t="n">
-        <v>205.8190495076644</v>
+        <v>402.9758070439921</v>
       </c>
       <c r="G44" t="n">
-        <v>205.8190495076644</v>
+        <v>328.3236280180348</v>
       </c>
       <c r="H44" t="n">
         <v>26.61094904162006</v>
@@ -7648,19 +7648,19 @@
         <v>26.61094904162006</v>
       </c>
       <c r="J44" t="n">
-        <v>91.81170871208244</v>
+        <v>91.81170871208258</v>
       </c>
       <c r="K44" t="n">
-        <v>222.51078276464</v>
+        <v>222.5107827646401</v>
       </c>
       <c r="L44" t="n">
-        <v>408.6406865371932</v>
+        <v>408.6406865371933</v>
       </c>
       <c r="M44" t="n">
-        <v>636.3312022157977</v>
+        <v>636.3312022157978</v>
       </c>
       <c r="N44" t="n">
-        <v>870.7049639274287</v>
+        <v>870.7049639274288</v>
       </c>
       <c r="O44" t="n">
         <v>1083.349541243458</v>
@@ -7675,25 +7675,25 @@
         <v>1330.547452081003</v>
       </c>
       <c r="S44" t="n">
-        <v>1213.809543508424</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="T44" t="n">
-        <v>1213.809543508424</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="U44" t="n">
-        <v>1213.809543508424</v>
+        <v>1074.969469711165</v>
       </c>
       <c r="V44" t="n">
-        <v>1213.809543508424</v>
+        <v>1074.969469711165</v>
       </c>
       <c r="W44" t="n">
-        <v>1213.809543508424</v>
+        <v>1074.969469711165</v>
       </c>
       <c r="X44" t="n">
-        <v>1213.809543508424</v>
+        <v>1074.969469711165</v>
       </c>
       <c r="Y44" t="n">
-        <v>877.8127121748378</v>
+        <v>1074.969469711165</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>491.899977926389</v>
+        <v>764.1335311772333</v>
       </c>
       <c r="C45" t="n">
-        <v>491.899977926389</v>
+        <v>613.4793007373255</v>
       </c>
       <c r="D45" t="n">
-        <v>491.899977926389</v>
+        <v>483.3903333588059</v>
       </c>
       <c r="E45" t="n">
-        <v>355.4534870372767</v>
+        <v>346.9438424696936</v>
       </c>
       <c r="F45" t="n">
-        <v>231.0216809204085</v>
+        <v>222.5120363528254</v>
       </c>
       <c r="G45" t="n">
-        <v>112.1305878975088</v>
+        <v>103.6209433299257</v>
       </c>
       <c r="H45" t="n">
-        <v>35.12059360920317</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I45" t="n">
         <v>26.61094904162006</v>
@@ -7754,25 +7754,25 @@
         <v>1090.638518367583</v>
       </c>
       <c r="S45" t="n">
-        <v>1090.638518367583</v>
+        <v>977.4163937835649</v>
       </c>
       <c r="T45" t="n">
-        <v>1090.638518367583</v>
+        <v>805.143363508402</v>
       </c>
       <c r="U45" t="n">
-        <v>1090.638518367583</v>
+        <v>805.143363508402</v>
       </c>
       <c r="V45" t="n">
-        <v>1090.638518367583</v>
+        <v>805.143363508402</v>
       </c>
       <c r="W45" t="n">
-        <v>860.5212725008701</v>
+        <v>805.143363508402</v>
       </c>
       <c r="X45" t="n">
-        <v>671.2141948508818</v>
+        <v>805.143363508402</v>
       </c>
       <c r="Y45" t="n">
-        <v>491.899977926389</v>
+        <v>805.143363508402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.89216014208506</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="C46" t="n">
-        <v>27.89216014208506</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="D46" t="n">
-        <v>27.89216014208506</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="E46" t="n">
-        <v>27.89216014208506</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="F46" t="n">
-        <v>27.89216014208506</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="G46" t="n">
-        <v>27.89216014208506</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H46" t="n">
         <v>26.61094904162006</v>
@@ -7839,19 +7839,19 @@
         <v>311.2225622109074</v>
       </c>
       <c r="U46" t="n">
-        <v>311.2225622109074</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="V46" t="n">
-        <v>311.2225622109074</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="W46" t="n">
-        <v>27.89216014208506</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="X46" t="n">
-        <v>27.89216014208506</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.89216014208506</v>
+        <v>26.61094904162006</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>45.30876821055361</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>34.59292991576665</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>18.68715897392866</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.895022563523497</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>27.68343765293218</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>52.41767977011629</v>
       </c>
       <c r="R2" t="n">
         <v>86.56775819371971</v>
@@ -8057,10 +8057,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>39.34074399253945</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.92582377546655</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R3" t="n">
         <v>66.36540832016887</v>
@@ -8139,22 +8139,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.42049456093673</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>30.34506479299962</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>24.46454532135643</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>43.26304678555945</v>
       </c>
       <c r="Q4" t="n">
         <v>66.45011700163332</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>29.66398046922554</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>11.14544858436605</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8233,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.176537307564445</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>32.51210151769618</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>74.98883187131496</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>30.02281559133009</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>20.16138275253149</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>60.2419881239143</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>49.65937055503829</v>
+        <v>49.6593705550383</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29.81410061865641</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>18.51666445282825</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>17.38394971109511</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>11.81161658658297</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>24.24681624532572</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>33.26277565816529</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>59.526447627428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>16.19493633782723</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.3748212697451</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.02020383945649</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>22.000745178859</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.322780213904736</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>54.97016096830681</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.62658137956165</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>21.54368199160336</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>7.93337601567444</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.225355940650999</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.9183492353166116</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>14.18512072001893</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>24.6532569246509</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>53.56566312243694</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>50.10311736083153</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>9.996493671227995</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>47.08138215850112</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>37.09549975836524</v>
       </c>
       <c r="K13" t="n">
         <v>9.167801431118576</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>11.76994589361105</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>44.64592635853825</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>37.09549975836521</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>9.167801431118534</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>50.10311736083152</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>9.996493671227995</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>37.09549975836524</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>9.167801431118576</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>11.76994589361104</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>44.64592635853824</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.10311736083145</v>
+        <v>50.10311736083152</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>9.996493671227995</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>37.09549975836524</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>9.167801431118576</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>11.76994589361104</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>44.64592635853824</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.290675977935251</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.85384836195696</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.290675977935251</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.85384836195696</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.290675977935251</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.85384836195696</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>13.96650363601577</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>17.252177704435</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.290675977935251</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.85384836195696</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>13.96650363601577</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>17.252177704435</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.290675977935251</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.85384836195696</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>13.96650363601577</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>17.252177704435</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.290675977935251</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.85384836195696</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>13.96650363601577</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.252177704435</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.290675977935251</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.85384836195696</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>13.96650363601577</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>17.252177704435</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.290675977935251</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.85384836195696</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>13.96650363601577</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>17.252177704435</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,13 +22570,13 @@
         <v>104.0803818793758</v>
       </c>
       <c r="J2" t="n">
-        <v>45.30876821055361</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>34.59292991576665</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18.68715897392866</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,13 +22585,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.895022563523497</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.68343765293218</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>52.41767977011629</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -22649,10 +22649,10 @@
         <v>33.18546864354515</v>
       </c>
       <c r="J3" t="n">
-        <v>39.34074399253945</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.92582377546655</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>32.7508163066282</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -22731,22 +22731,22 @@
         <v>3.032602924853915</v>
       </c>
       <c r="K4" t="n">
-        <v>39.42049456093673</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>30.80954133327054</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>30.34506479299962</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>24.46454532135643</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.9338438677494</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>43.26304678555945</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -22801,16 +22801,16 @@
         <v>407.9941069995947</v>
       </c>
       <c r="H5" t="n">
-        <v>309.0204625151861</v>
+        <v>277.855074482778</v>
       </c>
       <c r="I5" t="n">
-        <v>64.60724071521105</v>
+        <v>96.97399528284214</v>
       </c>
       <c r="J5" t="n">
-        <v>29.66398046922551</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.14544858436602</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22825,13 +22825,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.176537307564416</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>32.51210151769615</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>42.62207730368385</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>108.8505498766633</v>
@@ -22843,10 +22843,10 @@
         <v>253.1122405931648</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>337.4843746682939</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>334.9222901137643</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>121.7697336733823</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -22886,7 +22886,7 @@
         <v>29.78981672629463</v>
       </c>
       <c r="J6" t="n">
-        <v>30.02281559133009</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,31 +22907,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.16138275253147</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.8752335562832</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>90.90842511216104</v>
+        <v>123.2751796797921</v>
       </c>
       <c r="T6" t="n">
-        <v>140.6107635766676</v>
+        <v>172.9775181442987</v>
       </c>
       <c r="U6" t="n">
-        <v>179.417370838118</v>
+        <v>207.9260082612874</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>187.9478470450126</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>195.449318840415</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>145.1543201876168</v>
       </c>
     </row>
     <row r="7">
@@ -22968,25 +22968,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.8141006186564</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>18.51666445282824</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>17.3839497110951</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>11.81161658658296</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>24.2468162453257</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>33.26277565816527</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>59.52644762742798</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>101.7461592834061</v>
@@ -23026,22 +23026,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>328.5341807285021</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>338.3254725967044</v>
       </c>
       <c r="F8" t="n">
-        <v>352.4932770474054</v>
+        <v>352.4932770474055</v>
       </c>
       <c r="G8" t="n">
-        <v>407.8354119480459</v>
+        <v>347.6031949101294</v>
       </c>
       <c r="H8" t="n">
-        <v>248.3643763158173</v>
+        <v>308.5965933537339</v>
       </c>
       <c r="I8" t="n">
-        <v>53.99830387883347</v>
+        <v>90.85590430800323</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.37482126974504</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4.78798680153983</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>137.6010409571238</v>
@@ -23102,25 +23102,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>88.91547109759208</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
-        <v>130.8966375007232</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>57.98723824451447</v>
+        <v>57.9872382445146</v>
       </c>
       <c r="H9" t="n">
-        <v>21.00344732440212</v>
+        <v>81.23566436231876</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.86640310864002</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23144,25 +23144,25 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.322780213904707</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>54.9701609683068</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>121.6980259637708</v>
       </c>
       <c r="T9" t="n">
-        <v>172.6352739258752</v>
+        <v>119.5827371588784</v>
       </c>
       <c r="U9" t="n">
         <v>207.9204221206168</v>
       </c>
       <c r="V9" t="n">
-        <v>220.3146016126436</v>
+        <v>160.0823845747271</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>167.5838563701295</v>
       </c>
       <c r="X9" t="n">
         <v>187.4140068734885</v>
@@ -23202,31 +23202,31 @@
         <v>115.6337621977075</v>
       </c>
       <c r="J10" t="n">
-        <v>44.62658137956164</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>21.54368199160334</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>7.933376015674412</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.225355940650957</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.918349235316569</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>14.18512072001889</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>24.65325692465089</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>53.56566312243692</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>98.54541667547149</v>
+        <v>98.5454166754715</v>
       </c>
       <c r="S10" t="n">
         <v>191.4406826063894</v>
@@ -23269,10 +23269,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>290.8338624272142</v>
       </c>
       <c r="G11" t="n">
-        <v>407.5979401715768</v>
+        <v>285.706308513469</v>
       </c>
       <c r="H11" t="n">
         <v>306.1645855229701</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.29802119272729</v>
+        <v>132.189652850835</v>
       </c>
       <c r="T11" t="n">
-        <v>93.10018522791879</v>
+        <v>93.10018522791877</v>
       </c>
       <c r="U11" t="n">
-        <v>131.1889155888157</v>
+        <v>145.7183980824621</v>
       </c>
       <c r="V11" t="n">
-        <v>281.4267093998871</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.386739438444</v>
+        <v>28.38673943844397</v>
       </c>
       <c r="C12" t="n">
-        <v>27.25605647740097</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>68.50731069877439</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
         <v>135.0820259802211</v>
@@ -23351,7 +23351,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0923966805212</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>80.00854575966319</v>
@@ -23360,7 +23360,7 @@
         <v>22.49179773586701</v>
       </c>
       <c r="J12" t="n">
-        <v>9.996493671227995</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T12" t="n">
-        <v>50.23150693813965</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9120630020701</v>
+        <v>86.0204313439623</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -23402,7 +23402,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>76.25262273144068</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -23424,13 +23424,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>120.0628589540074</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>131.9882695949328</v>
+        <v>165.9286346603149</v>
       </c>
       <c r="H13" t="n">
         <v>148.207989438968</v>
@@ -23439,7 +23439,7 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J13" t="n">
-        <v>37.09549975836524</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.76994589361105</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.64592635853825</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>93.75581532553741</v>
@@ -23503,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>372.8963141158393</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>290.8338624272143</v>
+        <v>290.8338624272141</v>
       </c>
       <c r="G14" t="n">
-        <v>285.7063085134691</v>
+        <v>285.7063085134689</v>
       </c>
       <c r="H14" t="n">
-        <v>184.2729538648624</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.10311736083155</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>132.189652850835</v>
       </c>
       <c r="T14" t="n">
-        <v>214.9918168860265</v>
+        <v>93.1001852279186</v>
       </c>
       <c r="U14" t="n">
         <v>253.0805472469234</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>231.3235920390554</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23582,7 +23582,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>23.92064183817311</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
@@ -23591,13 +23591,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28796328765949</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J15" t="n">
-        <v>9.996493671228009</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T15" t="n">
-        <v>50.23150693813965</v>
+        <v>50.23150693813947</v>
       </c>
       <c r="U15" t="n">
-        <v>101.9489751200791</v>
+        <v>86.02043134396216</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -23655,7 +23655,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>134.5627016892883</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23676,10 +23676,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J16" t="n">
-        <v>37.09549975836525</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>9.16780143111859</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>11.76994589361107</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.64592635853825</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.75581532553741</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S16" t="n">
         <v>189.5843005223167</v>
@@ -23721,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.940575506141</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>363.582370963317</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -23746,13 +23746,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>285.7063085134691</v>
+        <v>407.5979401715768</v>
       </c>
       <c r="H17" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I17" t="n">
-        <v>81.70077364567956</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.10311736083152</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.29802119272728</v>
+        <v>132.189652850835</v>
       </c>
       <c r="T17" t="n">
-        <v>107.6296677215653</v>
+        <v>93.10018522791874</v>
       </c>
       <c r="U17" t="n">
-        <v>131.1889155888156</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>216.794109545409</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>263.666447358166</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23813,19 +23813,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>27.25605647740092</v>
       </c>
       <c r="D18" t="n">
-        <v>6.896446046626735</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>13.19039432211342</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>1.295856397591791</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>10.7302475160598</v>
+        <v>10.73024751605998</v>
       </c>
       <c r="H18" t="n">
         <v>80.00854575966319</v>
@@ -23834,7 +23834,7 @@
         <v>22.49179773586701</v>
       </c>
       <c r="J18" t="n">
-        <v>9.996493671227995</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.08138215850111</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>119.3379681607525</v>
       </c>
       <c r="T18" t="n">
-        <v>172.1231385962474</v>
+        <v>50.23150693813959</v>
       </c>
       <c r="U18" t="n">
         <v>207.9120630020701</v>
@@ -23876,7 +23876,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538068</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -23892,10 +23892,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>134.5627016892885</v>
       </c>
       <c r="D19" t="n">
-        <v>120.1364169011282</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23913,10 +23913,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J19" t="n">
-        <v>37.09549975836524</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>9.167801431118576</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>11.76994589361104</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.64592635853824</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>93.7558153255374</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.5981665961748</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>355.9253419767172</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>290.8338624272142</v>
       </c>
       <c r="G20" t="n">
-        <v>300.2357910071153</v>
+        <v>285.706308513469</v>
       </c>
       <c r="H20" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I20" t="n">
-        <v>81.70077364567953</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>132.189652850835</v>
       </c>
       <c r="T20" t="n">
-        <v>93.10018522791843</v>
+        <v>93.10018522791874</v>
       </c>
       <c r="U20" t="n">
         <v>253.0805472469234</v>
@@ -24034,7 +24034,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>263.6664473581657</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.38673943844366</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>41.78553897104717</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -24059,19 +24059,19 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>92.03464967331489</v>
       </c>
       <c r="G21" t="n">
-        <v>118.0923966805212</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>80.00854575966318</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>22.49179773586699</v>
+        <v>22.49179773586701</v>
       </c>
       <c r="J21" t="n">
-        <v>9.996493671227938</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.08138215850107</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>119.3379681607525</v>
       </c>
       <c r="T21" t="n">
-        <v>172.1231385962474</v>
+        <v>50.23150693813959</v>
       </c>
       <c r="U21" t="n">
         <v>207.9120630020701</v>
@@ -24113,10 +24113,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>65.52237521538039</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>55.62944309713977</v>
+        <v>55.62944309714005</v>
       </c>
     </row>
     <row r="22">
@@ -24144,16 +24144,16 @@
         <v>165.9286346603149</v>
       </c>
       <c r="H22" t="n">
-        <v>148.2079894389679</v>
+        <v>148.207989438968</v>
       </c>
       <c r="I22" t="n">
         <v>112.4303652576383</v>
       </c>
       <c r="J22" t="n">
-        <v>37.0954997583652</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>9.167801431118505</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,16 +24168,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>11.76994589361098</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.6459263585382</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>93.75581532553738</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S22" t="n">
-        <v>189.5843005223167</v>
+        <v>155.6439354569345</v>
       </c>
       <c r="T22" t="n">
         <v>230.6150159536303</v>
@@ -24189,7 +24189,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>246.5567329827516</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>63.85293523403209</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24217,13 +24217,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>80.08863106507118</v>
       </c>
       <c r="G23" t="n">
         <v>406.868631411775</v>
       </c>
       <c r="H23" t="n">
-        <v>4.732613472945317</v>
+        <v>298.6955521866505</v>
       </c>
       <c r="I23" t="n">
         <v>53.58409768342285</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>75.6061830847552</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.7992677899944</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0222025461392</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>34.6521816611446</v>
       </c>
       <c r="X23" t="n">
-        <v>52.92121599602291</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>59.88893896835407</v>
       </c>
     </row>
     <row r="24">
@@ -24290,13 +24290,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>117.7021820926707</v>
@@ -24344,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>137.245541448721</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>95.53783092373246</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -24414,7 +24414,7 @@
         <v>79.04628532410493</v>
       </c>
       <c r="S25" t="n">
-        <v>183.8830936859346</v>
+        <v>122.9985372198632</v>
       </c>
       <c r="T25" t="n">
         <v>229.2172239801824</v>
@@ -24429,7 +24429,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>170.8549625287754</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>65.92082661436996</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>406.868631411775</v>
+        <v>74.2317683915241</v>
       </c>
       <c r="H26" t="n">
         <v>298.6955521866505</v>
       </c>
       <c r="I26" t="n">
-        <v>53.58409768342285</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>115.5705294868528</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0222025461392</v>
       </c>
       <c r="V26" t="n">
-        <v>6.04887818326597</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>34.6521816611446</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>344.6173428487077</v>
+        <v>52.9212159960228</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>364.9226185137854</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>117.7021820926707</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>76.23989434542257</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.85384836195696</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>112.089903338178</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>170.5502999724113</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>207.8863909897115</v>
+        <v>42.96405244470398</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>90.76548639657319</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>67.19193332481241</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24615,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6014918580186</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>145.2993925240062</v>
@@ -24669,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>122.4713820383169</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>63.85293523403209</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>56.60688346184787</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>115.5705294868528</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.7992677899944</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0222025461392</v>
       </c>
       <c r="V29" t="n">
-        <v>6.048878183265913</v>
+        <v>45.69919225527997</v>
       </c>
       <c r="W29" t="n">
-        <v>34.65218166114454</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>344.6173428487076</v>
+        <v>52.92121599602291</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24761,25 +24761,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>80.04969713034207</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>78.29626131626807</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>76.23989434542257</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.056777934872976</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.85384836195696</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>112.089903338178</v>
@@ -24818,13 +24818,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>177.5210747552478</v>
@@ -24861,7 +24861,7 @@
         <v>102.5922889849455</v>
       </c>
       <c r="J31" t="n">
-        <v>13.96650363601577</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.252177704435</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>79.04628532410493</v>
@@ -24897,13 +24897,13 @@
         <v>282.5314935766891</v>
       </c>
       <c r="V31" t="n">
-        <v>262.0511527379238</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>230.4711200053864</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24919,10 +24919,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>56.60688346184776</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>48.949854475248</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>115.5705294868528</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0222025461392</v>
       </c>
       <c r="V32" t="n">
-        <v>297.7450050359506</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>34.65218166114448</v>
       </c>
       <c r="X32" t="n">
-        <v>52.9212159960228</v>
+        <v>304.3707978580314</v>
       </c>
       <c r="Y32" t="n">
-        <v>59.88893896835395</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25007,7 +25007,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>117.7021820926707</v>
@@ -25016,7 +25016,7 @@
         <v>76.23989434542257</v>
       </c>
       <c r="I33" t="n">
-        <v>24.85294348666546</v>
+        <v>9.056777934872976</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>112.089903338178</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>10.97720226980658</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.8863909897115</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>43.20585003046514</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>177.5210747552478</v>
@@ -25092,13 +25092,13 @@
         <v>165.6014918580186</v>
       </c>
       <c r="H34" t="n">
-        <v>145.2993925240062</v>
+        <v>126.8534472137957</v>
       </c>
       <c r="I34" t="n">
         <v>102.5922889849455</v>
       </c>
       <c r="J34" t="n">
-        <v>12.38256331289579</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>79.04628532410493</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.8830936859346</v>
       </c>
       <c r="T34" t="n">
         <v>229.2172239801824</v>
@@ -25134,7 +25134,7 @@
         <v>282.5314935766891</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25156,7 +25156,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>56.60688346184787</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -25165,13 +25165,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>80.08863106507118</v>
       </c>
       <c r="G35" t="n">
-        <v>74.23176839152407</v>
+        <v>113.8820824635382</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>298.6955521866505</v>
       </c>
       <c r="I35" t="n">
         <v>53.58409768342285</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.290675977935251</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>115.5705294868528</v>
@@ -25219,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>58.63021923443625</v>
+        <v>52.92121599602291</v>
       </c>
       <c r="Y35" t="n">
-        <v>59.8889389683539</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
@@ -25250,10 +25250,10 @@
         <v>117.7021820926707</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>76.23989434542257</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9.056777934872976</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.216661882332092</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>112.089903338178</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25292,16 +25292,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>68.07892346275329</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25323,10 +25323,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>39.58867025958109</v>
+        <v>165.6014918580186</v>
       </c>
       <c r="H37" t="n">
         <v>145.2993925240062</v>
@@ -25335,7 +25335,7 @@
         <v>102.5922889849455</v>
       </c>
       <c r="J37" t="n">
-        <v>13.96650363601577</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.252177704435</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>79.04628532410493</v>
@@ -25368,7 +25368,7 @@
         <v>229.2172239801824</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5314935766891</v>
+        <v>0.7659965390946581</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>103.5032493060461</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -25399,13 +25399,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>65.92082661437007</v>
+        <v>65.92082661436996</v>
       </c>
       <c r="F38" t="n">
-        <v>80.08863106507118</v>
+        <v>80.08863106507107</v>
       </c>
       <c r="G38" t="n">
-        <v>406.868631411775</v>
+        <v>74.2317683915241</v>
       </c>
       <c r="H38" t="n">
         <v>298.6955521866505</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.290675977935251</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>115.5705294868528</v>
@@ -25450,10 +25450,10 @@
         <v>253.0222025461392</v>
       </c>
       <c r="V38" t="n">
-        <v>45.69919225527997</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>34.6521816611446</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25472,10 +25472,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>76.08397285519794</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,7 +25484,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>117.7021820926707</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>76.23989434542257</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.85384836195696</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>112.089903338178</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>20.35200166850814</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25557,10 +25557,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>55.5936654861833</v>
       </c>
       <c r="F40" t="n">
-        <v>137.3067301289463</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>165.6014918580186</v>
@@ -25572,7 +25572,7 @@
         <v>102.5922889849455</v>
       </c>
       <c r="J40" t="n">
-        <v>13.96650363601577</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.252177704435</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>79.04628532410493</v>
@@ -25608,7 +25608,7 @@
         <v>282.5314935766891</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25633,19 +25633,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>48.94985447524817</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>187.2003593396367</v>
       </c>
       <c r="F41" t="n">
         <v>80.08863106507124</v>
       </c>
       <c r="G41" t="n">
-        <v>406.868631411775</v>
+        <v>74.23176839152427</v>
       </c>
       <c r="H41" t="n">
-        <v>298.6955521866505</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>53.58409768342285</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>38.67392430654579</v>
+        <v>211.7992677899944</v>
       </c>
       <c r="U41" t="n">
         <v>253.0222025461392</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>59.88893896835413</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25709,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>85.96184995453844</v>
       </c>
       <c r="F42" t="n">
         <v>123.1874880556995</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.85384836195696</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>5.183030550375111</v>
+        <v>170.5502999724113</v>
       </c>
       <c r="U42" t="n">
         <v>207.8863909897115</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>43.56668665274039</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25809,7 +25809,7 @@
         <v>102.5922889849455</v>
       </c>
       <c r="J43" t="n">
-        <v>13.96650363601577</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>229.2172239801824</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5314935766891</v>
+        <v>0.7659965390946581</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>63.85293523403215</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>56.60688346184793</v>
       </c>
       <c r="D44" t="n">
         <v>48.94985447524817</v>
@@ -25879,10 +25879,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>406.868631411775</v>
+        <v>332.9629741760773</v>
       </c>
       <c r="H44" t="n">
-        <v>121.2795327252666</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>53.58409768342285</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.290675977935251</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>115.5705294868528</v>
       </c>
       <c r="T44" t="n">
         <v>211.7992677899944</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0222025461392</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25933,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>59.88893896835413</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>109.6786370886947</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6322298129656989</v>
+        <v>9.056777934872976</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.85384836195696</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>112.089903338178</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.5502999724113</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>207.8863909897115</v>
@@ -26006,13 +26006,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26040,13 +26040,13 @@
         <v>165.6014918580186</v>
       </c>
       <c r="H46" t="n">
-        <v>144.0309935345458</v>
+        <v>145.2993925240062</v>
       </c>
       <c r="I46" t="n">
         <v>102.5922889849455</v>
       </c>
       <c r="J46" t="n">
-        <v>13.96650363601577</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.252177704435</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>79.04628532410493</v>
@@ -26079,13 +26079,13 @@
         <v>229.2172239801824</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5314935766891</v>
+        <v>0.7659965390946581</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>183675.1729188261</v>
+        <v>224496.6874511566</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>199854.8107429733</v>
+        <v>237043.578491884</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>227978.5104403771</v>
+        <v>255129.841781796</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>277762.3339880765</v>
+        <v>292904.3542474479</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>276205.2108440265</v>
+        <v>292904.3542474479</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>277377.2863279695</v>
+        <v>292904.3542474479</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>284356.6505763336</v>
+        <v>292904.3542474478</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>417536.1583985052</v>
+        <v>419829.6051106888</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>417536.1583985052</v>
+        <v>419829.6051106888</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415052.8982982634</v>
+        <v>419829.6051106889</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>415052.8982982633</v>
+        <v>419829.6051106888</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415052.8982982635</v>
+        <v>419829.6051106889</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>416224.9737822062</v>
+        <v>419829.6051106889</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>416224.9737822062</v>
+        <v>419829.6051106889</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>416224.9737822062</v>
+        <v>419829.6051106888</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66087.06429510834</v>
+        <v>77167.18966816951</v>
       </c>
       <c r="C2" t="n">
-        <v>74126.28674008277</v>
+        <v>84220.38084335852</v>
       </c>
       <c r="D2" t="n">
-        <v>84814.64975798268</v>
+        <v>92184.29683636778</v>
       </c>
       <c r="E2" t="n">
-        <v>103322.6282210475</v>
+        <v>107432.6051485912</v>
       </c>
       <c r="F2" t="n">
-        <v>102899.9805105197</v>
+        <v>107432.6051485912</v>
       </c>
       <c r="G2" t="n">
-        <v>103218.1152847328</v>
+        <v>107432.6051485912</v>
       </c>
       <c r="H2" t="n">
-        <v>105112.5141521459</v>
+        <v>107432.6051485912</v>
       </c>
       <c r="I2" t="n">
-        <v>155301.578087906</v>
+        <v>155924.0850526416</v>
       </c>
       <c r="J2" t="n">
-        <v>155301.578087906</v>
+        <v>155924.0850526416</v>
       </c>
       <c r="K2" t="n">
-        <v>154627.5503464118</v>
+        <v>155924.0850526416</v>
       </c>
       <c r="L2" t="n">
-        <v>154627.5503464118</v>
+        <v>155924.0850526416</v>
       </c>
       <c r="M2" t="n">
-        <v>154627.5503464117</v>
+        <v>155924.0850526416</v>
       </c>
       <c r="N2" t="n">
-        <v>154945.6851206248</v>
+        <v>155924.0850526416</v>
       </c>
       <c r="O2" t="n">
-        <v>154945.6851206249</v>
+        <v>155924.0850526416</v>
       </c>
       <c r="P2" t="n">
-        <v>154945.6851206248</v>
+        <v>155924.0850526416</v>
       </c>
     </row>
     <row r="3">
@@ -26368,37 +26368,37 @@
         <v>204388.91618249</v>
       </c>
       <c r="C3" t="n">
-        <v>52209.77728050077</v>
+        <v>52209.7772805007</v>
       </c>
       <c r="D3" t="n">
-        <v>42463.12874659788</v>
+        <v>42463.12874659782</v>
       </c>
       <c r="E3" t="n">
-        <v>65868.04718407334</v>
+        <v>65868.04718407344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.176270186282636e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>192601.9595275128</v>
+        <v>192601.9595275131</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8330.166889562101</v>
+        <v>8330.166889562064</v>
       </c>
       <c r="L3" t="n">
-        <v>7052.497762067022</v>
+        <v>7052.497762067019</v>
       </c>
       <c r="M3" t="n">
-        <v>15365.77276101012</v>
+        <v>15365.77276101015</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6283.579284587776</v>
+        <v>17363.70465764895</v>
       </c>
       <c r="C4" t="n">
-        <v>904.3780558020908</v>
+        <v>10998.47215907785</v>
       </c>
       <c r="D4" t="n">
-        <v>361.7794037225147</v>
+        <v>7731.426482107652</v>
       </c>
       <c r="E4" t="n">
-        <v>512.2177872748694</v>
+        <v>4622.19471481852</v>
       </c>
       <c r="F4" t="n">
-        <v>89.57007674701687</v>
+        <v>4622.194714818515</v>
       </c>
       <c r="G4" t="n">
-        <v>407.7048509601177</v>
+        <v>4622.194714818519</v>
       </c>
       <c r="H4" t="n">
-        <v>2302.103718373155</v>
+        <v>4622.194714818519</v>
       </c>
       <c r="I4" t="n">
-        <v>909.995610126692</v>
+        <v>1532.502574862237</v>
       </c>
       <c r="J4" t="n">
-        <v>909.995610126692</v>
+        <v>1532.502574862237</v>
       </c>
       <c r="K4" t="n">
-        <v>235.9678686324524</v>
+        <v>1532.502574862237</v>
       </c>
       <c r="L4" t="n">
-        <v>235.9678686324524</v>
+        <v>1532.502574862237</v>
       </c>
       <c r="M4" t="n">
-        <v>235.9678686324524</v>
+        <v>1532.502574862237</v>
       </c>
       <c r="N4" t="n">
-        <v>554.1026428455532</v>
+        <v>1532.502574862237</v>
       </c>
       <c r="O4" t="n">
-        <v>554.1026428455532</v>
+        <v>1532.502574862237</v>
       </c>
       <c r="P4" t="n">
-        <v>554.1026428455531</v>
+        <v>1532.502574862237</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>38251.52928777246</v>
       </c>
       <c r="C5" t="n">
-        <v>41219.00407381341</v>
+        <v>41219.0040738134</v>
       </c>
       <c r="D5" t="n">
-        <v>43773.78778279356</v>
+        <v>43773.78778279354</v>
       </c>
       <c r="E5" t="n">
         <v>15182.8302675488</v>
       </c>
       <c r="F5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="G5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754881</v>
       </c>
       <c r="H5" t="n">
-        <v>15182.83026754883</v>
+        <v>15182.83026754881</v>
       </c>
       <c r="I5" t="n">
         <v>31950.99941158201</v>
       </c>
       <c r="J5" t="n">
-        <v>31950.99941158201</v>
+        <v>31950.99941158202</v>
       </c>
       <c r="K5" t="n">
         <v>31950.99941158201</v>
@@ -26502,10 +26502,10 @@
         <v>31950.99941158202</v>
       </c>
       <c r="M5" t="n">
+        <v>31950.99941158201</v>
+      </c>
+      <c r="N5" t="n">
         <v>31950.99941158202</v>
-      </c>
-      <c r="N5" t="n">
-        <v>31950.99941158201</v>
       </c>
       <c r="O5" t="n">
         <v>31950.999411582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-182836.9604597419</v>
+        <v>-184234.1391371588</v>
       </c>
       <c r="C6" t="n">
-        <v>-20206.8726700335</v>
+        <v>-21566.92928863354</v>
       </c>
       <c r="D6" t="n">
-        <v>-1784.046175131269</v>
+        <v>-3102.187446399714</v>
       </c>
       <c r="E6" t="n">
-        <v>21759.53298215051</v>
+        <v>20521.64596515678</v>
       </c>
       <c r="F6" t="n">
-        <v>87627.58016622387</v>
+        <v>86389.69314923009</v>
       </c>
       <c r="G6" t="n">
-        <v>87627.58016622387</v>
+        <v>86389.69314923024</v>
       </c>
       <c r="H6" t="n">
-        <v>87627.58016622375</v>
+        <v>86389.69314923024</v>
       </c>
       <c r="I6" t="n">
-        <v>-70161.37646131546</v>
+        <v>-71144.04516302487</v>
       </c>
       <c r="J6" t="n">
-        <v>122440.5830661973</v>
+        <v>121457.9143644882</v>
       </c>
       <c r="K6" t="n">
-        <v>114110.4161766353</v>
+        <v>113127.7474749261</v>
       </c>
       <c r="L6" t="n">
-        <v>115388.0853041303</v>
+        <v>114405.4166024212</v>
       </c>
       <c r="M6" t="n">
-        <v>107074.8103051872</v>
+        <v>106092.1416034781</v>
       </c>
       <c r="N6" t="n">
-        <v>122440.5830661973</v>
+        <v>121457.9143644882</v>
       </c>
       <c r="O6" t="n">
-        <v>122440.5830661974</v>
+        <v>121457.9143644882</v>
       </c>
       <c r="P6" t="n">
-        <v>122440.5830661973</v>
+        <v>121457.9143644882</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>212.1068480629568</v>
       </c>
       <c r="C3" t="n">
-        <v>257.9589631239193</v>
+        <v>257.9589631239192</v>
       </c>
       <c r="D3" t="n">
-        <v>297.4343571967078</v>
+        <v>297.4343571967077</v>
       </c>
       <c r="E3" t="n">
         <v>356.5054615933877</v>
       </c>
       <c r="F3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.505461593388</v>
       </c>
       <c r="G3" t="n">
         <v>356.5054615933878</v>
       </c>
       <c r="H3" t="n">
-        <v>356.5054615933881</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="I3" t="n">
         <v>537.9210155940715</v>
@@ -26792,40 +26792,40 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="D4" t="n">
-        <v>60.23221703791663</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="E4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="F4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="H4" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="I4" t="n">
         <v>332.6368630202508</v>
       </c>
       <c r="J4" t="n">
+        <v>332.6368630202509</v>
+      </c>
+      <c r="K4" t="n">
         <v>332.6368630202508</v>
-      </c>
-      <c r="K4" t="n">
-        <v>332.6368630202509</v>
       </c>
       <c r="L4" t="n">
         <v>332.6368630202509</v>
       </c>
       <c r="M4" t="n">
-        <v>332.636863020251</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="N4" t="n">
-        <v>332.6368630202508</v>
+        <v>332.6368630202509</v>
       </c>
       <c r="O4" t="n">
         <v>332.6368630202508</v>
@@ -26962,25 +26962,25 @@
         <v>212.1068480629568</v>
       </c>
       <c r="C3" t="n">
-        <v>45.85211506096249</v>
+        <v>45.85211506096243</v>
       </c>
       <c r="D3" t="n">
-        <v>39.4753940727885</v>
+        <v>39.47539407278845</v>
       </c>
       <c r="E3" t="n">
-        <v>59.07110439668003</v>
+        <v>59.07110439668008</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>181.4155540006834</v>
+        <v>181.4155540006837</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="D4" t="n">
-        <v>27.86546247028554</v>
+        <v>27.86546247028546</v>
       </c>
       <c r="E4" t="n">
-        <v>61.6594146201911</v>
+        <v>61.65941462019126</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>210.7452313621428</v>
+        <v>210.745231362143</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>32.36675456763118</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="L4" t="n">
-        <v>27.86546247028548</v>
+        <v>27.86546247028546</v>
       </c>
       <c r="M4" t="n">
-        <v>61.65941462019116</v>
+        <v>61.65941462019127</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="L4" t="n">
-        <v>27.86546247028554</v>
+        <v>27.86546247028546</v>
       </c>
       <c r="M4" t="n">
-        <v>61.6594146201911</v>
+        <v>61.65941462019126</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31287,7 +31287,7 @@
         <v>39.97975045561768</v>
       </c>
       <c r="J5" t="n">
-        <v>88.01585747312059</v>
+        <v>88.01585747312056</v>
       </c>
       <c r="K5" t="n">
         <v>131.9129545948713</v>
@@ -31299,7 +31299,7 @@
         <v>182.0918061653583</v>
       </c>
       <c r="N5" t="n">
-        <v>181.4852459054152</v>
+        <v>181.4852459054151</v>
       </c>
       <c r="O5" t="n">
         <v>174.7263648162623</v>
@@ -31311,16 +31311,16 @@
         <v>111.986596900696</v>
       </c>
       <c r="R5" t="n">
-        <v>65.14176770787094</v>
+        <v>65.14176770787093</v>
       </c>
       <c r="S5" t="n">
-        <v>23.63111506406558</v>
+        <v>23.63111506406557</v>
       </c>
       <c r="T5" t="n">
-        <v>4.539559240502337</v>
+        <v>4.539559240502336</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08296167658256692</v>
+        <v>0.0829616765825669</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5548551282288074</v>
+        <v>0.5548551282288073</v>
       </c>
       <c r="H6" t="n">
-        <v>5.358732422630852</v>
+        <v>5.358732422630851</v>
       </c>
       <c r="I6" t="n">
         <v>19.10356472191289</v>
       </c>
       <c r="J6" t="n">
-        <v>52.42164174200326</v>
+        <v>52.42164174200325</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333336</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>120.4741365042417</v>
       </c>
       <c r="M6" t="n">
-        <v>124.753876616943</v>
+        <v>106.5294649568028</v>
       </c>
       <c r="N6" t="n">
         <v>117.7388674217977</v>
       </c>
       <c r="O6" t="n">
-        <v>125.05431345652</v>
+        <v>125.0543134565199</v>
       </c>
       <c r="P6" t="n">
-        <v>87.728582080324</v>
+        <v>105.9529937404641</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.82677040338253</v>
+        <v>70.8267704033825</v>
       </c>
       <c r="R6" t="n">
-        <v>34.44968945266229</v>
+        <v>34.44968945266228</v>
       </c>
       <c r="S6" t="n">
         <v>10.30619064933771</v>
@@ -31399,7 +31399,7 @@
         <v>2.236455538781903</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0365036268571584</v>
+        <v>0.03650362685715839</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4651719007152642</v>
+        <v>0.4651719007152641</v>
       </c>
       <c r="H7" t="n">
-        <v>4.135801080904806</v>
+        <v>4.135801080904805</v>
       </c>
       <c r="I7" t="n">
         <v>13.98898770514631</v>
       </c>
       <c r="J7" t="n">
-        <v>32.88765338056918</v>
+        <v>32.88765338056917</v>
       </c>
       <c r="K7" t="n">
-        <v>54.04451719219159</v>
+        <v>54.04451719219158</v>
       </c>
       <c r="L7" t="n">
-        <v>69.15837512997665</v>
+        <v>69.15837512997663</v>
       </c>
       <c r="M7" t="n">
-        <v>72.91780985484817</v>
+        <v>72.91780985484816</v>
       </c>
       <c r="N7" t="n">
-        <v>71.18398731581861</v>
+        <v>71.1839873158186</v>
       </c>
       <c r="O7" t="n">
-        <v>65.7499337483721</v>
+        <v>65.74993374837209</v>
       </c>
       <c r="P7" t="n">
-        <v>56.26042697378066</v>
+        <v>56.26042697378065</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.95180343171181</v>
+        <v>38.9518034317118</v>
       </c>
       <c r="R7" t="n">
         <v>20.91582019034269</v>
       </c>
       <c r="S7" t="n">
-        <v>8.106677578828737</v>
+        <v>8.106677578828736</v>
       </c>
       <c r="T7" t="n">
-        <v>1.987552666692492</v>
+        <v>1.987552666692491</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02537301276628717</v>
+        <v>0.02537301276628716</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.195716008830985</v>
       </c>
       <c r="H8" t="n">
-        <v>12.24562657544033</v>
+        <v>12.24562657544032</v>
       </c>
       <c r="I8" t="n">
-        <v>46.0978414304566</v>
+        <v>46.09784143045658</v>
       </c>
       <c r="J8" t="n">
         <v>101.4849016045189</v>
@@ -31533,13 +31533,13 @@
         <v>188.6929540635958</v>
       </c>
       <c r="M8" t="n">
-        <v>209.9572686356439</v>
+        <v>209.9572686356438</v>
       </c>
       <c r="N8" t="n">
-        <v>209.3507083757007</v>
+        <v>209.3507083757006</v>
       </c>
       <c r="O8" t="n">
-        <v>201.4646956829218</v>
+        <v>201.4646956829217</v>
       </c>
       <c r="P8" t="n">
         <v>171.9454567149068</v>
@@ -31548,16 +31548,16 @@
         <v>129.1238771486471</v>
       </c>
       <c r="R8" t="n">
-        <v>75.11039573972943</v>
+        <v>75.1103957397294</v>
       </c>
       <c r="S8" t="n">
-        <v>27.2473785512361</v>
+        <v>27.24737855123609</v>
       </c>
       <c r="T8" t="n">
-        <v>5.23424682865764</v>
+        <v>5.234246828657638</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09565728070647879</v>
+        <v>0.09565728070647875</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6397644664231072</v>
+        <v>0.639764466423107</v>
       </c>
       <c r="H9" t="n">
-        <v>6.178777873086327</v>
+        <v>6.178777873086324</v>
       </c>
       <c r="I9" t="n">
-        <v>22.02697833956751</v>
+        <v>22.0269783395675</v>
       </c>
       <c r="J9" t="n">
-        <v>60.44371215447437</v>
+        <v>60.44371215447435</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>113.4788851961672</v>
+        <v>138.9102627643681</v>
       </c>
       <c r="M9" t="n">
-        <v>152.6193390872285</v>
+        <v>152.6193390872284</v>
       </c>
       <c r="N9" t="n">
-        <v>145.6043298920833</v>
+        <v>145.6043298920832</v>
       </c>
       <c r="O9" t="n">
-        <v>152.216241272168</v>
+        <v>152.2162412721679</v>
       </c>
       <c r="P9" t="n">
-        <v>122.1669532417949</v>
+        <v>96.73557567359384</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.66537294200928</v>
+        <v>81.66537294200926</v>
       </c>
       <c r="R9" t="n">
-        <v>39.72151660826978</v>
+        <v>39.72151660826977</v>
       </c>
       <c r="S9" t="n">
         <v>11.88334436535902</v>
       </c>
       <c r="T9" t="n">
-        <v>2.578699757205418</v>
+        <v>2.578699757205417</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04208976752783603</v>
+        <v>0.042089767527836</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5363570375678336</v>
+        <v>0.5363570375678334</v>
       </c>
       <c r="H10" t="n">
-        <v>4.768701661284924</v>
+        <v>4.768701661284922</v>
       </c>
       <c r="I10" t="n">
         <v>16.1297189115854</v>
       </c>
       <c r="J10" t="n">
-        <v>37.92044255604583</v>
+        <v>37.92044255604582</v>
       </c>
       <c r="K10" t="n">
-        <v>62.31493581924465</v>
+        <v>62.31493581924463</v>
       </c>
       <c r="L10" t="n">
-        <v>79.74166356713047</v>
+        <v>79.74166356713044</v>
       </c>
       <c r="M10" t="n">
-        <v>84.07640362529231</v>
+        <v>84.07640362529227</v>
       </c>
       <c r="N10" t="n">
-        <v>82.077254667085</v>
+        <v>82.07725466708496</v>
       </c>
       <c r="O10" t="n">
-        <v>75.81162927367892</v>
+        <v>75.81162927367888</v>
       </c>
       <c r="P10" t="n">
-        <v>64.86994570729505</v>
+        <v>64.86994570729503</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.91258793670287</v>
+        <v>44.91258793670286</v>
       </c>
       <c r="R10" t="n">
-        <v>24.11656279827731</v>
+        <v>24.1165627982773</v>
       </c>
       <c r="S10" t="n">
-        <v>9.347240372886697</v>
+        <v>9.347240372886693</v>
       </c>
       <c r="T10" t="n">
         <v>2.291707342335288</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02925583841279096</v>
+        <v>0.02925583841279095</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I14" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J14" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K14" t="n">
-        <v>182.3068607443614</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L14" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M14" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N14" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O14" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P14" t="n">
-        <v>206.094195010879</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.7681574498209</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R14" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S14" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T14" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U14" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H15" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I15" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J15" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K15" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L15" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2954765683963</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N15" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O15" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P15" t="n">
-        <v>146.4295734608766</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R15" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S15" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T15" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H16" t="n">
-        <v>5.715776089153006</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I16" t="n">
-        <v>19.33311585165454</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J16" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K16" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L16" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M16" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N16" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O16" t="n">
-        <v>90.86798224350808</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P16" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R16" t="n">
-        <v>28.90616414821139</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S16" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T16" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.433187785300051</v>
+        <v>1.43318778530005</v>
       </c>
       <c r="H20" t="n">
-        <v>14.67763440620416</v>
+        <v>14.67763440620414</v>
       </c>
       <c r="I20" t="n">
-        <v>55.25297209278029</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J20" t="n">
-        <v>121.6400217926104</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K20" t="n">
-        <v>182.3068607443616</v>
+        <v>182.3068607443614</v>
       </c>
       <c r="L20" t="n">
-        <v>226.1677814287381</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M20" t="n">
-        <v>251.6552347055678</v>
+        <v>251.6552347055676</v>
       </c>
       <c r="N20" t="n">
-        <v>255.7272795005516</v>
+        <v>255.7272795005514</v>
       </c>
       <c r="O20" t="n">
-        <v>241.4760184604743</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P20" t="n">
-        <v>206.0941950108792</v>
+        <v>206.094195010879</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.768157449821</v>
+        <v>154.7681574498209</v>
       </c>
       <c r="R20" t="n">
-        <v>90.02748221835444</v>
+        <v>90.02748221835436</v>
       </c>
       <c r="S20" t="n">
-        <v>32.65876665752496</v>
+        <v>32.65876665752493</v>
       </c>
       <c r="T20" t="n">
-        <v>6.273779530150978</v>
+        <v>6.273779530150974</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1146550228240041</v>
+        <v>0.114655022824004</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.766823068332948</v>
+        <v>0.7668230683329473</v>
       </c>
       <c r="H21" t="n">
-        <v>7.405896475741893</v>
+        <v>7.405896475741887</v>
       </c>
       <c r="I21" t="n">
-        <v>26.40158371234054</v>
+        <v>26.40158371234051</v>
       </c>
       <c r="J21" t="n">
-        <v>72.44796366210541</v>
+        <v>72.44796366210535</v>
       </c>
       <c r="K21" t="n">
-        <v>123.8251092404129</v>
+        <v>123.8251092404128</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4981403413272</v>
+        <v>166.498140341327</v>
       </c>
       <c r="M21" t="n">
-        <v>194.2954765683965</v>
+        <v>194.2954765683963</v>
       </c>
       <c r="N21" t="n">
-        <v>199.4378996889276</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O21" t="n">
-        <v>182.4467148590238</v>
+        <v>182.4467148590236</v>
       </c>
       <c r="P21" t="n">
-        <v>146.4295734608767</v>
+        <v>146.4295734608766</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.88429202088649</v>
+        <v>97.88429202088641</v>
       </c>
       <c r="R21" t="n">
-        <v>47.61029541807551</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S21" t="n">
-        <v>14.24340216837733</v>
+        <v>14.24340216837732</v>
       </c>
       <c r="T21" t="n">
-        <v>3.090835086833241</v>
+        <v>3.090835086833238</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05044888607453607</v>
+        <v>0.05044888607453603</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6428787012339784</v>
+        <v>0.6428787012339779</v>
       </c>
       <c r="H22" t="n">
-        <v>5.715776089153012</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I22" t="n">
-        <v>19.33311585165456</v>
+        <v>19.33311585165454</v>
       </c>
       <c r="J22" t="n">
-        <v>45.45152417724227</v>
+        <v>45.45152417724223</v>
       </c>
       <c r="K22" t="n">
-        <v>74.69081637972948</v>
+        <v>74.69081637972941</v>
       </c>
       <c r="L22" t="n">
-        <v>95.57852981800441</v>
+        <v>95.57852981800433</v>
       </c>
       <c r="M22" t="n">
-        <v>100.7741585943408</v>
+        <v>100.7741585943407</v>
       </c>
       <c r="N22" t="n">
-        <v>98.37797434428697</v>
+        <v>98.37797434428688</v>
       </c>
       <c r="O22" t="n">
-        <v>90.86798224350818</v>
+        <v>90.86798224350811</v>
       </c>
       <c r="P22" t="n">
-        <v>77.75325673833495</v>
+        <v>77.7532567383349</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.8323247006016</v>
+        <v>53.83232470060155</v>
       </c>
       <c r="R22" t="n">
-        <v>28.90616414821142</v>
+        <v>28.9061641482114</v>
       </c>
       <c r="S22" t="n">
-        <v>11.20362245695942</v>
+        <v>11.20362245695941</v>
       </c>
       <c r="T22" t="n">
-        <v>2.746845359817907</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03506611097639886</v>
+        <v>0.03506611097639883</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>83.36964805503696</v>
       </c>
       <c r="J44" t="n">
-        <v>183.5391911448334</v>
+        <v>183.5391911448335</v>
       </c>
       <c r="K44" t="n">
         <v>275.0776698989924</v>
@@ -34383,7 +34383,7 @@
         <v>385.859664783876</v>
       </c>
       <c r="O44" t="n">
-        <v>364.3563397635201</v>
+        <v>364.3563397635199</v>
       </c>
       <c r="P44" t="n">
         <v>310.9697063063195</v>
@@ -34941,16 +34941,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>10.40151498580133</v>
+        <v>10.4015149858013</v>
       </c>
       <c r="M5" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="N5" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="O5" t="n">
-        <v>25.16252739216594</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>30.41378964732351</v>
+        <v>30.41378964732348</v>
       </c>
       <c r="M6" t="n">
-        <v>32.36675456763109</v>
+        <v>14.14234290749089</v>
       </c>
       <c r="N6" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="O6" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P6" t="n">
-        <v>0.645217261009347</v>
+        <v>18.86962892114946</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>9.041157079097189</v>
+        <v>9.041157079097133</v>
       </c>
       <c r="L8" t="n">
-        <v>35.44478433310414</v>
+        <v>35.44478433310408</v>
       </c>
       <c r="M8" t="n">
-        <v>60.2322170379166</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="N8" t="n">
-        <v>60.23221703791663</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="O8" t="n">
-        <v>51.90085825882539</v>
+        <v>51.90085825882534</v>
       </c>
       <c r="P8" t="n">
-        <v>21.64400947398161</v>
+        <v>21.64400947398155</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>23.41853833924894</v>
+        <v>48.84991590744984</v>
       </c>
       <c r="M9" t="n">
-        <v>60.23221703791663</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="N9" t="n">
-        <v>60.23221703791663</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="O9" t="n">
-        <v>59.5286823832791</v>
+        <v>59.52868238327905</v>
       </c>
       <c r="P9" t="n">
-        <v>35.08358842248029</v>
+        <v>9.652210854279197</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K14" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L14" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M14" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N14" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O14" t="n">
-        <v>91.91218103637758</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P14" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L15" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M15" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N15" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O15" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P15" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.896138864972386</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>7.903490235199413</v>
+        <v>7.903490235199499</v>
       </c>
       <c r="M16" t="n">
-        <v>10.47239902839742</v>
+        <v>10.4723990283975</v>
       </c>
       <c r="N16" t="n">
-        <v>15.38237044188529</v>
+        <v>15.38237044188537</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8712322498102765</v>
+        <v>0.8712322498103475</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.960183850264258</v>
+        <v>3.960183850264158</v>
       </c>
       <c r="K20" t="n">
-        <v>39.2484575651242</v>
+        <v>39.24845756512406</v>
       </c>
       <c r="L20" t="n">
-        <v>72.91961169824637</v>
+        <v>72.9196116982462</v>
       </c>
       <c r="M20" t="n">
-        <v>101.9301831078406</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N20" t="n">
-        <v>106.6087881627676</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O20" t="n">
-        <v>91.91218103637786</v>
+        <v>91.91218103637766</v>
       </c>
       <c r="P20" t="n">
-        <v>55.79274776995399</v>
+        <v>55.79274776995382</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.26945903142888</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.22817390707958</v>
+        <v>34.22817390707948</v>
       </c>
       <c r="L21" t="n">
-        <v>76.43779348440894</v>
+        <v>76.4377934844088</v>
       </c>
       <c r="M21" t="n">
-        <v>101.9083545190846</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N21" t="n">
-        <v>114.0657868347609</v>
+        <v>114.0657868347607</v>
       </c>
       <c r="O21" t="n">
-        <v>89.75915597013493</v>
+        <v>89.75915597013476</v>
       </c>
       <c r="P21" t="n">
-        <v>59.34620864156207</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.8961388649725</v>
+        <v>6.896138864972414</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>7.903490235199527</v>
+        <v>7.903490235199442</v>
       </c>
       <c r="M22" t="n">
-        <v>10.47239902839753</v>
+        <v>10.47239902839745</v>
       </c>
       <c r="N22" t="n">
-        <v>15.3823704418854</v>
+        <v>15.38237044188531</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8712322498103759</v>
+        <v>0.8712322498103049</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>65.85935320248724</v>
+        <v>65.8593532024874</v>
       </c>
       <c r="K44" t="n">
         <v>132.0192667197551</v>
@@ -38031,7 +38031,7 @@
         <v>236.7411734460919</v>
       </c>
       <c r="O44" t="n">
-        <v>214.7925023394237</v>
+        <v>214.7925023394235</v>
       </c>
       <c r="P44" t="n">
         <v>160.6682590653943</v>
